--- a/data/Mutation_Table.xlsx
+++ b/data/Mutation_Table.xlsx
@@ -1,22 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/bi19884_bristol_ac_uk/Documents/Documents/Coding/R/SCN9A_pain_phenotypes/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/bi19884_bristol_ac_uk/Documents/Documents/Coding/R/Newton_NaV1.7_UKB/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2319" documentId="8_{7BA8D25B-4407-4088-BF7A-A104204A9A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEEFAE5C-5AD0-4B66-B077-1BC4D3734776}"/>
+  <xr:revisionPtr revIDLastSave="2322" documentId="8_{7BA8D25B-4407-4088-BF7A-A104204A9A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B09B2FA-C6D2-47CD-AA8F-3DA965F2B93C}"/>
   <bookViews>
-    <workbookView xWindow="9290" yWindow="10690" windowWidth="19420" windowHeight="10420" xr2:uid="{73C49483-7D64-4387-A0BC-E9401DD974DD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{73C49483-7D64-4387-A0BC-E9401DD974DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Topology_vis" sheetId="2" r:id="rId2"/>
-    <sheet name="Patho_vis" sheetId="5" r:id="rId3"/>
-    <sheet name="preview" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="630">
   <si>
     <t>SCN9A</t>
   </si>
@@ -1760,9 +1757,6 @@
     <t>D4 S6</t>
   </si>
   <si>
-    <t>SCN9A-1_protein_position</t>
-  </si>
-  <si>
     <t>position</t>
   </si>
   <si>
@@ -1844,15 +1838,6 @@
     <t>Sequencing of SCN9A only. Discovered at same time as 10.1371/journal.pone.0055212</t>
   </si>
   <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>Mutation Count</t>
-  </si>
-  <si>
-    <t>Mutation Rate</t>
-  </si>
-  <si>
     <t>UKB_het</t>
   </si>
   <si>
@@ -1950,15 +1935,6 @@
   </si>
   <si>
     <t>SCN9A_2_protein_notation</t>
-  </si>
-  <si>
-    <t>Protein</t>
-  </si>
-  <si>
-    <t>Gene</t>
-  </si>
-  <si>
-    <t>ephys</t>
   </si>
   <si>
     <t>W1161R</t>
@@ -1968,7 +1944,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2010,12 +1986,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF4D5156"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2038,7 +2008,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
@@ -2054,7 +2024,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2073,1072 +2042,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="101"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="1"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Topology_vis!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Mutation Rate</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="dk1">
-                    <a:tint val="88500"/>
-                    <a:lumMod val="110000"/>
-                    <a:satMod val="105000"/>
-                    <a:tint val="67000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="dk1">
-                    <a:tint val="88500"/>
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="103000"/>
-                    <a:tint val="73000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="dk1">
-                    <a:tint val="88500"/>
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="109000"/>
-                    <a:tint val="81000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:tint val="88500"/>
-                  <a:shade val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Topology_vis!$F$2:$F$27</c:f>
-              <c:strCache>
-                <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>D4 S6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>D4 S4-S5 Linker</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>D4 S4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>D4 S2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>D4 S1-S2 Linker</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>D3-D4 Linker</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>D3 S5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>D3 S4-S5 Linker</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>D3 S3-S4 Linker</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>D2-D3 Linker</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>D2 S6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>D2 S5-S6 Linker</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>D2 S5-6 Linker</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>D2 S5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>D2 S4-S5 Linker</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>D2 S4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>D2 S3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>D2 S1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>D1-D2 Linker</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>D1 S6</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>D1 S4-S5 Linker</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>D1 S4</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>D1 S3-S4 Linker</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>D1 S2-S3 Linker</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>D1 S1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>NT Cytoplasmic</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Topology_vis!$H$2:$H$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>3.4482758620689653</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.6206896551724146</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.4482758620689653</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.7241379310344827</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.7241379310344827</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.8965517241379306</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.7241379310344827</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.8965517241379306</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.7241379310344827</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.1724137931034484</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.7241379310344827</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.7241379310344827</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.7241379310344827</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10.344827586206897</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.7241379310344827</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.4482758620689653</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.7241379310344827</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.7241379310344827</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>13.793103448275861</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.7241379310344827</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.1724137931034484</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.4482758620689653</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.7241379310344827</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3.4482758620689653</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.7241379310344827</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3.4482758620689653</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E5DB-4120-9720-30B77B8D8BC7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:axId val="550357216"/>
-        <c:axId val="1138913632"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="550357216"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1138913632"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1138913632"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB" sz="1400" b="1">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>Mutations in NAV1.7 Topological Domains (%)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="550357216"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="57150">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
-  <a:schemeClr val="dk1"/>
-  <cs:variation>
-    <a:tint val="88500"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="55000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="75000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="98500"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="80000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="219">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="15875" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>609598</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>176209</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>92866</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5730A182-493F-DBBB-C428-50B869788ADC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noChangeAspect="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3176,7 +2083,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3282,7 +2189,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3424,7 +2331,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3434,8 +2341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6DAD94D-2EBF-469C-AF33-EE0FC4771AE1}">
   <dimension ref="A1:Z60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+    <sheetView tabSelected="1" topLeftCell="M22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Y40" sqref="Y40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3468,52 +2375,52 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C1" t="s">
+        <v>622</v>
+      </c>
+      <c r="D1" t="s">
+        <v>596</v>
+      </c>
+      <c r="E1" t="s">
+        <v>597</v>
+      </c>
+      <c r="F1" t="s">
+        <v>598</v>
+      </c>
+      <c r="G1" t="s">
         <v>626</v>
       </c>
-      <c r="D1" t="s">
-        <v>600</v>
-      </c>
-      <c r="E1" t="s">
-        <v>601</v>
-      </c>
-      <c r="F1" t="s">
-        <v>602</v>
-      </c>
-      <c r="G1" t="s">
-        <v>630</v>
-      </c>
       <c r="H1" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="I1" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="J1" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="K1" t="s">
         <v>1</v>
       </c>
       <c r="L1" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="M1" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="N1" t="s">
+        <v>571</v>
+      </c>
+      <c r="O1" t="s">
         <v>572</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>573</v>
-      </c>
-      <c r="P1" t="s">
-        <v>574</v>
       </c>
       <c r="Q1" t="s">
         <v>323</v>
@@ -3528,22 +2435,22 @@
         <v>555</v>
       </c>
       <c r="U1" t="s">
+        <v>574</v>
+      </c>
+      <c r="V1" t="s">
         <v>575</v>
-      </c>
-      <c r="V1" t="s">
-        <v>576</v>
       </c>
       <c r="W1" s="5" t="s">
         <v>384</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="Y1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="Z1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
@@ -3610,10 +2517,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -3770,7 +2677,7 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="D5">
         <v>1883</v>
@@ -3824,7 +2731,7 @@
         <v>9</v>
       </c>
       <c r="U5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="V5" t="s">
         <v>382</v>
@@ -3833,7 +2740,7 @@
         <v>389</v>
       </c>
       <c r="X5" s="7" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="Y5" t="s">
         <v>390</v>
@@ -3850,7 +2757,7 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="D6">
         <v>15</v>
@@ -3904,7 +2811,7 @@
         <v>10</v>
       </c>
       <c r="U6" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="V6" t="s">
         <v>383</v>
@@ -3966,7 +2873,7 @@
         <v>8</v>
       </c>
       <c r="U7" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="V7" t="s">
         <v>382</v>
@@ -4069,7 +2976,7 @@
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="D9">
         <v>1381</v>
@@ -4200,7 +3107,7 @@
         <v>9</v>
       </c>
       <c r="U10" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="V10" t="s">
         <v>382</v>
@@ -4277,7 +3184,7 @@
         <v>9</v>
       </c>
       <c r="U11" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="V11" t="s">
         <v>382</v>
@@ -4345,7 +3252,7 @@
         <v>10</v>
       </c>
       <c r="U12" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="V12" t="s">
         <v>382</v>
@@ -4499,7 +3406,7 @@
         <v>9</v>
       </c>
       <c r="U14" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="V14" t="s">
         <v>382</v>
@@ -4525,7 +3432,7 @@
         <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="D15">
         <v>24430</v>
@@ -4579,7 +3486,7 @@
         <v>6</v>
       </c>
       <c r="U15" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="V15" t="s">
         <v>382</v>
@@ -4605,7 +3512,7 @@
         <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="D16">
         <v>78</v>
@@ -4659,7 +3566,7 @@
         <v>6</v>
       </c>
       <c r="U16" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="V16" t="s">
         <v>382</v>
@@ -4736,7 +3643,7 @@
         <v>8</v>
       </c>
       <c r="U17" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="V17" t="s">
         <v>382</v>
@@ -4745,7 +3652,7 @@
         <v>403</v>
       </c>
       <c r="X17" s="6" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="Y17" t="s">
         <v>390</v>
@@ -4762,7 +3669,7 @@
         <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="D18">
         <v>22</v>
@@ -4816,7 +3723,7 @@
         <v>1</v>
       </c>
       <c r="U18" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="V18" t="s">
         <v>382</v>
@@ -4825,7 +3732,7 @@
         <v>404</v>
       </c>
       <c r="X18" s="7" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="Y18" t="s">
         <v>405</v>
@@ -4842,7 +3749,7 @@
         <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="D19">
         <v>2519</v>
@@ -4896,7 +3803,7 @@
         <v>3</v>
       </c>
       <c r="U19" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="V19" t="s">
         <v>382</v>
@@ -4905,7 +3812,7 @@
         <v>404</v>
       </c>
       <c r="X19" s="7" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="Y19" t="s">
         <v>405</v>
@@ -4922,7 +3829,7 @@
         <v>110</v>
       </c>
       <c r="C20" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -4934,10 +3841,10 @@
         <v>14</v>
       </c>
       <c r="G20" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="H20" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="I20" t="s">
         <v>107</v>
@@ -4976,7 +3883,7 @@
         <v>10</v>
       </c>
       <c r="U20" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="V20" t="s">
         <v>382</v>
@@ -4985,7 +3892,7 @@
         <v>406</v>
       </c>
       <c r="X20" s="6" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="Y20" t="s">
         <v>390</v>
@@ -5002,7 +3909,7 @@
         <v>110</v>
       </c>
       <c r="C21" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="D21">
         <v>187</v>
@@ -5056,7 +3963,7 @@
         <v>10</v>
       </c>
       <c r="U21" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="V21" t="s">
         <v>382</v>
@@ -5065,7 +3972,7 @@
         <v>406</v>
       </c>
       <c r="X21" s="6" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="Y21" t="s">
         <v>390</v>
@@ -5082,7 +3989,7 @@
         <v>118</v>
       </c>
       <c r="C22" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="D22">
         <v>256</v>
@@ -5136,7 +4043,7 @@
         <v>2</v>
       </c>
       <c r="U22" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="V22" t="s">
         <v>382</v>
@@ -5145,7 +4052,7 @@
         <v>403</v>
       </c>
       <c r="X22" s="6" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="Y22" t="s">
         <v>390</v>
@@ -5162,7 +4069,7 @@
         <v>122</v>
       </c>
       <c r="C23" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="D23">
         <v>3877</v>
@@ -5225,7 +4132,7 @@
         <v>406</v>
       </c>
       <c r="X23" s="6" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="Y23" t="s">
         <v>390</v>
@@ -5242,7 +4149,7 @@
         <v>129</v>
       </c>
       <c r="C24" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D24">
         <v>215</v>
@@ -5305,7 +4212,7 @@
         <v>409</v>
       </c>
       <c r="X24" s="6" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="Y24" t="s">
         <v>410</v>
@@ -5512,7 +4419,7 @@
         <v>9</v>
       </c>
       <c r="U27" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="V27" t="s">
         <v>382</v>
@@ -6024,7 +4931,7 @@
         <v>9</v>
       </c>
       <c r="U34" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="V34" t="s">
         <v>382</v>
@@ -6050,7 +4957,7 @@
         <v>430</v>
       </c>
       <c r="C35" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="D35">
         <v>2644</v>
@@ -6098,7 +5005,7 @@
         <v>6</v>
       </c>
       <c r="U35" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="V35" t="s">
         <v>382</v>
@@ -6107,7 +5014,7 @@
         <v>403</v>
       </c>
       <c r="X35" s="7" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="Y35" t="s">
         <v>431</v>
@@ -6180,7 +5087,7 @@
         <v>181</v>
       </c>
       <c r="C37" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="D37">
         <v>2642</v>
@@ -6234,7 +5141,7 @@
         <v>7</v>
       </c>
       <c r="U37" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="V37" t="s">
         <v>382</v>
@@ -6260,7 +5167,7 @@
         <v>188</v>
       </c>
       <c r="C38" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="D38">
         <v>15</v>
@@ -6314,7 +5221,7 @@
         <v>3</v>
       </c>
       <c r="U38" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="V38" t="s">
         <v>383</v>
@@ -6340,7 +5247,7 @@
         <v>193</v>
       </c>
       <c r="C39" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="D39">
         <v>108583</v>
@@ -6379,7 +5286,7 @@
         <v>304</v>
       </c>
       <c r="P39" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="Q39">
         <v>4.6399999999999997E-2</v>
@@ -6394,7 +5301,7 @@
         <v>4</v>
       </c>
       <c r="U39" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="V39" t="s">
         <v>382</v>
@@ -6420,7 +5327,7 @@
         <v>197</v>
       </c>
       <c r="C40" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="D40">
         <v>2396</v>
@@ -6474,7 +5381,7 @@
         <v>8</v>
       </c>
       <c r="U40" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="V40" t="s">
         <v>382</v>
@@ -6483,7 +5390,7 @@
         <v>406</v>
       </c>
       <c r="X40" s="6" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="Y40" t="s">
         <v>434</v>
@@ -6551,7 +5458,7 @@
         <v>10</v>
       </c>
       <c r="U41" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="V41" t="s">
         <v>383</v>
@@ -6628,7 +5535,7 @@
         <v>10</v>
       </c>
       <c r="U42" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="V42" t="s">
         <v>382</v>
@@ -6705,7 +5612,7 @@
         <v>10</v>
       </c>
       <c r="U43" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="V43" t="s">
         <v>382</v>
@@ -6767,7 +5674,7 @@
         <v>9</v>
       </c>
       <c r="U44" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="V44" t="s">
         <v>382</v>
@@ -6835,13 +5742,13 @@
         <v>382</v>
       </c>
       <c r="W45" s="5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="X45" s="6" t="s">
         <v>306</v>
       </c>
       <c r="Y45" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="Z45" s="2" t="s">
         <v>438</v>
@@ -6906,7 +5813,7 @@
         <v>10</v>
       </c>
       <c r="U46" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="V46" t="s">
         <v>382</v>
@@ -6983,7 +5890,7 @@
         <v>10</v>
       </c>
       <c r="U47" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="V47" t="s">
         <v>382</v>
@@ -7060,7 +5967,7 @@
         <v>10</v>
       </c>
       <c r="U48" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="V48" t="s">
         <v>382</v>
@@ -7137,7 +6044,7 @@
         <v>10</v>
       </c>
       <c r="U49" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="V49" t="s">
         <v>382</v>
@@ -7163,7 +6070,7 @@
         <v>249</v>
       </c>
       <c r="C50" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="D50">
         <v>4</v>
@@ -7217,7 +6124,7 @@
         <v>6</v>
       </c>
       <c r="U50" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="V50" t="s">
         <v>382</v>
@@ -7226,7 +6133,7 @@
         <v>403</v>
       </c>
       <c r="X50" s="7" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="Y50" t="s">
         <v>390</v>
@@ -7243,7 +6150,7 @@
         <v>255</v>
       </c>
       <c r="C51" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="D51">
         <v>2245</v>
@@ -7507,7 +6414,7 @@
         <v>9</v>
       </c>
       <c r="U54" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="V54" t="s">
         <v>382</v>
@@ -7572,7 +6479,7 @@
         <v>10</v>
       </c>
       <c r="U55" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="V55" t="s">
         <v>382</v>
@@ -7649,7 +6556,7 @@
         <v>9</v>
       </c>
       <c r="U56" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="V56" t="s">
         <v>382</v>
@@ -7723,7 +6630,7 @@
         <v>9</v>
       </c>
       <c r="U57" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="V57" t="s">
         <v>382</v>
@@ -7785,7 +6692,7 @@
         <v>9</v>
       </c>
       <c r="U58" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="V58" t="s">
         <v>382</v>
@@ -7998,1802 +6905,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId56"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28AD1CBA-0267-4034-AA77-522D296EB563}">
-  <dimension ref="A1:I59"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="4" width="10.85546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>569</v>
-      </c>
-      <c r="B1" t="s">
-        <v>575</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>591</v>
-      </c>
-      <c r="F1" t="s">
-        <v>597</v>
-      </c>
-      <c r="G1" t="s">
-        <v>598</v>
-      </c>
-      <c r="H1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" t="s">
-        <v>556</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="F2" t="s">
-        <v>568</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2">
-        <f t="shared" ref="H2:H27" si="0">(G2/58)*100</f>
-        <v>3.4482758620689653</v>
-      </c>
-      <c r="I2" s="11"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" t="s">
-        <v>556</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="F3" t="s">
-        <v>590</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="H3">
-        <f t="shared" si="0"/>
-        <v>8.6206896551724146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" t="s">
-        <v>557</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="F4" t="s">
-        <v>567</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="0"/>
-        <v>3.4482758620689653</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" t="s">
-        <v>578</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>592</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="F5" t="s">
-        <v>566</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="0"/>
-        <v>1.7241379310344827</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" t="s">
-        <v>578</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="F6" t="s">
-        <v>589</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
-        <v>1.7241379310344827</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" t="s">
-        <v>579</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="F7" t="s">
-        <v>588</v>
-      </c>
-      <c r="G7">
-        <v>4</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
-        <v>6.8965517241379306</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" t="s">
-        <v>558</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="F8" t="s">
-        <v>565</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
-        <v>1.7241379310344827</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" t="s">
-        <v>558</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="F9" t="s">
-        <v>587</v>
-      </c>
-      <c r="G9">
-        <v>4</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
-        <v>6.8965517241379306</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" t="s">
-        <v>580</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="F10" t="s">
-        <v>586</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="0"/>
-        <v>1.7241379310344827</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" t="s">
-        <v>580</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="F11" t="s">
-        <v>585</v>
-      </c>
-      <c r="G11">
-        <v>3</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="0"/>
-        <v>5.1724137931034484</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" t="s">
-        <v>580</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="F12" t="s">
-        <v>564</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="0"/>
-        <v>1.7241379310344827</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" t="s">
-        <v>559</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="F13" t="s">
-        <v>584</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="0"/>
-        <v>1.7241379310344827</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" t="s">
-        <v>581</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="F14" t="s">
-        <v>583</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="0"/>
-        <v>1.7241379310344827</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>81</v>
-      </c>
-      <c r="B15" t="s">
-        <v>581</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="F15" t="s">
-        <v>563</v>
-      </c>
-      <c r="G15">
-        <v>6</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="0"/>
-        <v>10.344827586206897</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" t="s">
-        <v>581</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="F16" t="s">
-        <v>582</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="0"/>
-        <v>1.7241379310344827</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17" t="s">
-        <v>581</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="F17" t="s">
-        <v>562</v>
-      </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="0"/>
-        <v>3.4482758620689653</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>84</v>
-      </c>
-      <c r="B18" t="s">
-        <v>581</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="F18" t="s">
-        <v>561</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="0"/>
-        <v>1.7241379310344827</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B19" t="s">
-        <v>581</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="F19" t="s">
-        <v>560</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="0"/>
-        <v>1.7241379310344827</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>107</v>
-      </c>
-      <c r="B20" t="s">
-        <v>581</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="F20" t="s">
-        <v>581</v>
-      </c>
-      <c r="G20">
-        <v>8</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="0"/>
-        <v>13.793103448275861</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>114</v>
-      </c>
-      <c r="B21" t="s">
-        <v>581</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="F21" t="s">
-        <v>559</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="0"/>
-        <v>1.7241379310344827</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>119</v>
-      </c>
-      <c r="B22" t="s">
-        <v>560</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="F22" t="s">
-        <v>580</v>
-      </c>
-      <c r="G22">
-        <v>3</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="0"/>
-        <v>5.1724137931034484</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>125</v>
-      </c>
-      <c r="B23" t="s">
-        <v>561</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="F23" t="s">
-        <v>558</v>
-      </c>
-      <c r="G23">
-        <v>2</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="0"/>
-        <v>3.4482758620689653</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>131</v>
-      </c>
-      <c r="B24" t="s">
-        <v>562</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="F24" t="s">
-        <v>579</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="0"/>
-        <v>1.7241379310344827</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>136</v>
-      </c>
-      <c r="B25" t="s">
-        <v>562</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="F25" t="s">
-        <v>578</v>
-      </c>
-      <c r="G25">
-        <v>2</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="0"/>
-        <v>3.4482758620689653</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>413</v>
-      </c>
-      <c r="B26" t="s">
-        <v>582</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="F26" t="s">
-        <v>557</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="0"/>
-        <v>1.7241379310344827</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>141</v>
-      </c>
-      <c r="B27" t="s">
-        <v>563</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="D27" s="7"/>
-      <c r="F27" t="s">
-        <v>556</v>
-      </c>
-      <c r="G27">
-        <v>2</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="0"/>
-        <v>3.4482758620689653</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>147</v>
-      </c>
-      <c r="B28" t="s">
-        <v>563</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="D28" s="7"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>154</v>
-      </c>
-      <c r="B29" t="s">
-        <v>563</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="D29" s="7"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>104</v>
-      </c>
-      <c r="B30" t="s">
-        <v>563</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="D30" s="6"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>105</v>
-      </c>
-      <c r="B31" t="s">
-        <v>563</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="D31" s="7"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>106</v>
-      </c>
-      <c r="B32" t="s">
-        <v>563</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="D32" s="7"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>171</v>
-      </c>
-      <c r="B33" t="s">
-        <v>583</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="D33" s="7"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>427</v>
-      </c>
-      <c r="B34" t="s">
-        <v>584</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>592</v>
-      </c>
-      <c r="D34" s="7"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>176</v>
-      </c>
-      <c r="B35" t="s">
-        <v>564</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="D35" s="6"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>148</v>
-      </c>
-      <c r="B36" t="s">
-        <v>585</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="D36" s="7"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>149</v>
-      </c>
-      <c r="B37" t="s">
-        <v>585</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="D37" s="7"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>189</v>
-      </c>
-      <c r="B38" t="s">
-        <v>585</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="D38" s="7"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>194</v>
-      </c>
-      <c r="B39" t="s">
-        <v>586</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="D39" s="6"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>200</v>
-      </c>
-      <c r="B40" t="s">
-        <v>587</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="D40" s="6"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>206</v>
-      </c>
-      <c r="B41" t="s">
-        <v>587</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="D41" s="6"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>212</v>
-      </c>
-      <c r="B42" t="s">
-        <v>587</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="D42" s="6"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>218</v>
-      </c>
-      <c r="B43" t="s">
-        <v>587</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="D43" s="7"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>220</v>
-      </c>
-      <c r="B44" t="s">
-        <v>565</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="D44" s="6"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>222</v>
-      </c>
-      <c r="B45" t="s">
-        <v>588</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="D45" s="7"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>228</v>
-      </c>
-      <c r="B46" t="s">
-        <v>588</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="D46" s="6"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>234</v>
-      </c>
-      <c r="B47" t="s">
-        <v>588</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="D47" s="6"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>240</v>
-      </c>
-      <c r="B48" t="s">
-        <v>588</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="D48" s="6"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>246</v>
-      </c>
-      <c r="B49" t="s">
-        <v>589</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>592</v>
-      </c>
-      <c r="D49" s="7"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>252</v>
-      </c>
-      <c r="B50" t="s">
-        <v>566</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="D50" s="6"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>258</v>
-      </c>
-      <c r="B51" t="s">
-        <v>567</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="D51" s="7"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>260</v>
-      </c>
-      <c r="B52" t="s">
-        <v>567</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="D52" s="7"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>266</v>
-      </c>
-      <c r="B53" t="s">
-        <v>590</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="D53" s="7"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>272</v>
-      </c>
-      <c r="B54" t="s">
-        <v>590</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="D54" s="7"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>274</v>
-      </c>
-      <c r="B55" t="s">
-        <v>590</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="D55" s="6"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>280</v>
-      </c>
-      <c r="B56" t="s">
-        <v>590</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>285</v>
-      </c>
-      <c r="B57" t="s">
-        <v>590</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="D57" s="7"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>287</v>
-      </c>
-      <c r="B58" t="s">
-        <v>568</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="D58" s="7"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>294</v>
-      </c>
-      <c r="B59" t="s">
-        <v>568</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="D59" s="6"/>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:H27">
-    <sortCondition descending="1" ref="E2:E27"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B85767-F18C-4F7B-ADE7-552ABD5F4781}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82527822-7CEA-4BBD-A6CE-8A9D732EA611}">
-  <dimension ref="A1:K21"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" customWidth="1"/>
-    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="131.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>634</v>
-      </c>
-      <c r="B1" t="s">
-        <v>633</v>
-      </c>
-      <c r="C1" t="s">
-        <v>575</v>
-      </c>
-      <c r="D1" t="s">
-        <v>600</v>
-      </c>
-      <c r="E1" t="s">
-        <v>601</v>
-      </c>
-      <c r="F1" t="s">
-        <v>554</v>
-      </c>
-      <c r="G1" t="s">
-        <v>555</v>
-      </c>
-      <c r="H1" t="s">
-        <v>635</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>591</v>
-      </c>
-      <c r="J1" t="s">
-        <v>594</v>
-      </c>
-      <c r="K1" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>456</v>
-      </c>
-      <c r="C2" t="s">
-        <v>556</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>382</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="K2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>458</v>
-      </c>
-      <c r="C3" t="s">
-        <v>578</v>
-      </c>
-      <c r="D3">
-        <v>1883</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3">
-        <v>10</v>
-      </c>
-      <c r="G3">
-        <v>9</v>
-      </c>
-      <c r="H3" t="s">
-        <v>382</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>592</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="K3" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>459</v>
-      </c>
-      <c r="C4" t="s">
-        <v>578</v>
-      </c>
-      <c r="D4">
-        <v>15</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>10</v>
-      </c>
-      <c r="G4">
-        <v>10</v>
-      </c>
-      <c r="H4" t="s">
-        <v>383</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="K4" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>462</v>
-      </c>
-      <c r="C5" t="s">
-        <v>558</v>
-      </c>
-      <c r="D5">
-        <v>1381</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-      <c r="G5">
-        <v>8</v>
-      </c>
-      <c r="H5" t="s">
-        <v>382</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="K5" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>468</v>
-      </c>
-      <c r="C6" t="s">
-        <v>581</v>
-      </c>
-      <c r="D6">
-        <v>24430</v>
-      </c>
-      <c r="E6">
-        <v>375</v>
-      </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
-      <c r="G6">
-        <v>6</v>
-      </c>
-      <c r="H6" t="s">
-        <v>382</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="K6" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>469</v>
-      </c>
-      <c r="C7" t="s">
-        <v>581</v>
-      </c>
-      <c r="D7">
-        <v>78</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>10</v>
-      </c>
-      <c r="G7">
-        <v>6</v>
-      </c>
-      <c r="H7" t="s">
-        <v>382</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="K7" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>471</v>
-      </c>
-      <c r="C8" t="s">
-        <v>581</v>
-      </c>
-      <c r="D8">
-        <v>22</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>10</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>382</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="K8" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>513</v>
-      </c>
-      <c r="C9" t="s">
-        <v>581</v>
-      </c>
-      <c r="D9">
-        <v>2519</v>
-      </c>
-      <c r="E9">
-        <v>4</v>
-      </c>
-      <c r="F9">
-        <v>10</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="H9" t="s">
-        <v>382</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="K9" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>514</v>
-      </c>
-      <c r="C10" t="s">
-        <v>581</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>10</v>
-      </c>
-      <c r="G10">
-        <v>10</v>
-      </c>
-      <c r="H10" t="s">
-        <v>382</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="K10" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>514</v>
-      </c>
-      <c r="C11" t="s">
-        <v>581</v>
-      </c>
-      <c r="D11">
-        <v>187</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>10</v>
-      </c>
-      <c r="G11">
-        <v>10</v>
-      </c>
-      <c r="H11" t="s">
-        <v>382</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="K11" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>515</v>
-      </c>
-      <c r="C12" t="s">
-        <v>581</v>
-      </c>
-      <c r="D12">
-        <v>256</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>10</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-      <c r="H12" t="s">
-        <v>382</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="K12" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>516</v>
-      </c>
-      <c r="C13" t="s">
-        <v>560</v>
-      </c>
-      <c r="D13">
-        <v>3877</v>
-      </c>
-      <c r="E13">
-        <v>7</v>
-      </c>
-      <c r="F13">
-        <v>10</v>
-      </c>
-      <c r="G13">
-        <v>9</v>
-      </c>
-      <c r="H13" t="s">
-        <v>382</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="K13" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>517</v>
-      </c>
-      <c r="C14" t="s">
-        <v>561</v>
-      </c>
-      <c r="D14">
-        <v>215</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>9</v>
-      </c>
-      <c r="G14">
-        <v>3</v>
-      </c>
-      <c r="H14" t="s">
-        <v>382</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="K14" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>528</v>
-      </c>
-      <c r="C15" t="s">
-        <v>584</v>
-      </c>
-      <c r="D15">
-        <v>2644</v>
-      </c>
-      <c r="E15">
-        <v>22</v>
-      </c>
-      <c r="F15">
-        <v>10</v>
-      </c>
-      <c r="G15">
-        <v>6</v>
-      </c>
-      <c r="H15" t="s">
-        <v>382</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>592</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="K15" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>530</v>
-      </c>
-      <c r="C16" t="s">
-        <v>585</v>
-      </c>
-      <c r="D16">
-        <v>2642</v>
-      </c>
-      <c r="E16">
-        <v>21</v>
-      </c>
-      <c r="F16">
-        <v>10</v>
-      </c>
-      <c r="G16">
-        <v>7</v>
-      </c>
-      <c r="H16" t="s">
-        <v>382</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="K16" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>531</v>
-      </c>
-      <c r="C17" t="s">
-        <v>585</v>
-      </c>
-      <c r="D17">
-        <v>15</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>9</v>
-      </c>
-      <c r="G17">
-        <v>3</v>
-      </c>
-      <c r="H17" t="s">
-        <v>383</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="K17" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>532</v>
-      </c>
-      <c r="C18" t="s">
-        <v>585</v>
-      </c>
-      <c r="D18">
-        <v>108583</v>
-      </c>
-      <c r="E18">
-        <v>8405</v>
-      </c>
-      <c r="F18">
-        <v>10</v>
-      </c>
-      <c r="G18">
-        <v>4</v>
-      </c>
-      <c r="H18" t="s">
-        <v>382</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="K18" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>533</v>
-      </c>
-      <c r="C19" t="s">
-        <v>586</v>
-      </c>
-      <c r="D19">
-        <v>2396</v>
-      </c>
-      <c r="E19">
-        <v>4</v>
-      </c>
-      <c r="F19">
-        <v>10</v>
-      </c>
-      <c r="G19">
-        <v>8</v>
-      </c>
-      <c r="H19" t="s">
-        <v>382</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="K19" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s">
-        <v>543</v>
-      </c>
-      <c r="C20" t="s">
-        <v>589</v>
-      </c>
-      <c r="D20">
-        <v>4</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>8</v>
-      </c>
-      <c r="G20">
-        <v>6</v>
-      </c>
-      <c r="H20" t="s">
-        <v>382</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>592</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="K20" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" t="s">
-        <v>544</v>
-      </c>
-      <c r="C21" t="s">
-        <v>566</v>
-      </c>
-      <c r="D21">
-        <v>2245</v>
-      </c>
-      <c r="E21">
-        <v>6</v>
-      </c>
-      <c r="F21">
-        <v>10</v>
-      </c>
-      <c r="G21">
-        <v>4</v>
-      </c>
-      <c r="H21" t="s">
-        <v>382</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="K21" t="s">
-        <v>390</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="J10" r:id="rId1" display="https://doi.org/10.1093/brain/awaa016" xr:uid="{9F38966A-F165-4343-8AD0-D092566366E1}"/>
-    <hyperlink ref="J8" r:id="rId2" display="https://doi.org/10.1007/s12264-019-00413-5" xr:uid="{5A3D9D6D-2237-4022-B8F4-113E844CCCF6}"/>
-    <hyperlink ref="J9" r:id="rId3" display="https://doi.org/10.1007/s12264-019-00413-5" xr:uid="{EC18192D-0809-41ED-9E01-02218ED4481F}"/>
-    <hyperlink ref="J12" r:id="rId4" display="https://doi.org/10.1002/ana.23725" xr:uid="{EE7EA46F-DA4B-4ED3-9771-176CBB61F809}"/>
-    <hyperlink ref="J21" r:id="rId5" display="https://doi.org/10.1007%2Fs12017-012-8216-8" xr:uid="{CAEC2EA5-AF96-4BE3-BBBA-23A3B40A6382}"/>
-    <hyperlink ref="J20" r:id="rId6" display="https://doi.org/10.1002/ana.22485" xr:uid="{3DEEE096-007A-4A55-990D-37D776FE512A}"/>
-    <hyperlink ref="J19" r:id="rId7" display="https://doi.org/10.1093/brain/awaa016" xr:uid="{5A11552F-517D-4990-AA16-7424A6F70D03}"/>
-    <hyperlink ref="J18" r:id="rId8" display="https://doi.org/10.1002/ana.21895" xr:uid="{41FB5D8C-53AF-4430-9414-C4C55C34448D}"/>
-    <hyperlink ref="J17" r:id="rId9" display="https://doi.org/10.1172%2FJCI33297" xr:uid="{1B0D005C-6FEA-4D1E-AFBE-BA2E53AFCB53}"/>
-    <hyperlink ref="J16" r:id="rId10" display="https://doi.org/10.1002/ana.23725" xr:uid="{8F31D803-9105-4385-989B-1062F1D2595B}"/>
-    <hyperlink ref="J15" r:id="rId11" display="https://doi.org/10.1002/ana.22485" xr:uid="{B9ED2F16-E46C-4F78-9C49-2817E4523964}"/>
-    <hyperlink ref="J14" r:id="rId12" display="https://doi.org/10.1177/1744806918815007" xr:uid="{19C36FA4-FAC6-41EB-ADF7-01179A220EEE}"/>
-    <hyperlink ref="J13" r:id="rId13" display="https://doi.org/10.1093/brain/awaa016" xr:uid="{B0BF9B6D-C6DA-4F5B-8529-CC6326A6CD74}"/>
-    <hyperlink ref="J11" r:id="rId14" display="https://doi.org/10.1093/brain/awaa016" xr:uid="{B3A2432D-8453-4FB5-B54C-F8E78580B8DA}"/>
-    <hyperlink ref="J7" r:id="rId15" display="https://doi.org/10.1093/brain/awq114" xr:uid="{F35A1440-C96E-4C66-A8C1-A0EB73F3AC48}"/>
-    <hyperlink ref="J6" r:id="rId16" display="https://doi.org/10.1186/1744-8069-4-21" xr:uid="{27D387AA-1183-43F7-A815-E1BF4B2E89B6}"/>
-    <hyperlink ref="J5" r:id="rId17" display="https://doi.org/10.1186/1744-8069-7-92" xr:uid="{E3968081-2C6E-4488-9828-F8BD566147A3}"/>
-    <hyperlink ref="J4" r:id="rId18" display="https://doi.org/10.1016/j.sjpain.2014.09.002" xr:uid="{CCC2DF71-DBDA-4FA9-B481-45E1B4D7BC62}"/>
-    <hyperlink ref="J3" r:id="rId19" display="https://doi.org/10.1093/brain/aws187" xr:uid="{F6EBC995-A2A9-4F7C-BE9A-A57D6FAA1462}"/>
-    <hyperlink ref="J2" r:id="rId20" display="https://doi.org/10.1093/brain/awp078" xr:uid="{AC439431-4412-4BED-A35F-586AE3C5A504}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
-</worksheet>
 </file>
--- a/data/Mutation_Table.xlsx
+++ b/data/Mutation_Table.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/bi19884_bristol_ac_uk/Documents/Documents/Coding/R/Newton_NaV1.7_UKB/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2322" documentId="8_{7BA8D25B-4407-4088-BF7A-A104204A9A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B09B2FA-C6D2-47CD-AA8F-3DA965F2B93C}"/>
+  <xr:revisionPtr revIDLastSave="2388" documentId="8_{7BA8D25B-4407-4088-BF7A-A104204A9A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BD848E1-732E-4F31-B4FB-0EC71AA76B5A}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{73C49483-7D64-4387-A0BC-E9401DD974DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$B$46</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="677">
   <si>
     <t>SCN9A</t>
   </si>
@@ -1939,11 +1943,156 @@
   <si>
     <t>W1161R</t>
   </si>
+  <si>
+    <t>EVE_pathogenicity</t>
+  </si>
+  <si>
+    <t>EVE_aasub</t>
+  </si>
+  <si>
+    <t>rs</t>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>CADD_pathogenicity</t>
+  </si>
+  <si>
+    <t>Protein_Mutation</t>
+  </si>
+  <si>
+    <t>K655R</t>
+  </si>
+  <si>
+    <t>W719C</t>
+  </si>
+  <si>
+    <t>I720K</t>
+  </si>
+  <si>
+    <t>I739V</t>
+  </si>
+  <si>
+    <t>V810M</t>
+  </si>
+  <si>
+    <t>L823R</t>
+  </si>
+  <si>
+    <t>F826Y</t>
+  </si>
+  <si>
+    <t>I848T</t>
+  </si>
+  <si>
+    <t>G856R</t>
+  </si>
+  <si>
+    <t>G856D</t>
+  </si>
+  <si>
+    <t>L858H</t>
+  </si>
+  <si>
+    <t>L858F</t>
+  </si>
+  <si>
+    <t>A863P</t>
+  </si>
+  <si>
+    <t>V872G</t>
+  </si>
+  <si>
+    <t>Q875E</t>
+  </si>
+  <si>
+    <t>M932L</t>
+  </si>
+  <si>
+    <t>L955del</t>
+  </si>
+  <si>
+    <t>V991L</t>
+  </si>
+  <si>
+    <t>R996C</t>
+  </si>
+  <si>
+    <t>R1150W</t>
+  </si>
+  <si>
+    <t>L1267V</t>
+  </si>
+  <si>
+    <t>V1298D</t>
+  </si>
+  <si>
+    <t>V1298F</t>
+  </si>
+  <si>
+    <t>V1299F</t>
+  </si>
+  <si>
+    <t>P1308L</t>
+  </si>
+  <si>
+    <t>V1316A</t>
+  </si>
+  <si>
+    <t>F1449V</t>
+  </si>
+  <si>
+    <t>I1461T</t>
+  </si>
+  <si>
+    <t>F1462V</t>
+  </si>
+  <si>
+    <t>T1464I</t>
+  </si>
+  <si>
+    <t>M1532I</t>
+  </si>
+  <si>
+    <t>W1538R</t>
+  </si>
+  <si>
+    <t>G1607R</t>
+  </si>
+  <si>
+    <t>L1612P</t>
+  </si>
+  <si>
+    <t>F1624S</t>
+  </si>
+  <si>
+    <t>M1627K</t>
+  </si>
+  <si>
+    <t>A1632E</t>
+  </si>
+  <si>
+    <t>A1632T</t>
+  </si>
+  <si>
+    <t>A1632G</t>
+  </si>
+  <si>
+    <t>V1740L</t>
+  </si>
+  <si>
+    <t>A1746G</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2008,7 +2157,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
@@ -2024,6 +2173,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2339,16 +2490,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6DAD94D-2EBF-469C-AF33-EE0FC4771AE1}">
-  <dimension ref="A1:Z60"/>
+  <dimension ref="A1:AD60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Y40" sqref="Y40"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E39" sqref="D39:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" customWidth="1"/>
@@ -2358,22 +2509,25 @@
     <col min="10" max="10" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24.140625" customWidth="1"/>
-    <col min="13" max="13" width="18.140625" customWidth="1"/>
-    <col min="14" max="14" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.7109375" customWidth="1"/>
-    <col min="20" max="21" width="22" customWidth="1"/>
-    <col min="22" max="22" width="8" customWidth="1"/>
-    <col min="23" max="23" width="35.5703125" style="5" customWidth="1"/>
-    <col min="24" max="24" width="10.85546875" style="5" customWidth="1"/>
-    <col min="25" max="25" width="74.42578125" customWidth="1"/>
-    <col min="26" max="26" width="35.5703125" customWidth="1"/>
+    <col min="13" max="14" width="18.140625" customWidth="1"/>
+    <col min="15" max="15" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.28515625" customWidth="1"/>
+    <col min="17" max="17" width="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.140625" customWidth="1"/>
+    <col min="21" max="21" width="22.140625" style="11" customWidth="1"/>
+    <col min="22" max="22" width="22.140625" style="12" customWidth="1"/>
+    <col min="23" max="23" width="18.7109375" customWidth="1"/>
+    <col min="24" max="25" width="22" customWidth="1"/>
+    <col min="26" max="26" width="8" customWidth="1"/>
+    <col min="27" max="27" width="35.5703125" style="5" customWidth="1"/>
+    <col min="28" max="28" width="10.85546875" style="5" customWidth="1"/>
+    <col min="29" max="29" width="74.42578125" customWidth="1"/>
+    <col min="30" max="30" width="35.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>570</v>
       </c>
@@ -2414,46 +2568,58 @@
         <v>628</v>
       </c>
       <c r="N1" t="s">
+        <v>635</v>
+      </c>
+      <c r="O1" t="s">
         <v>571</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>572</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>573</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>323</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>333</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
+        <v>631</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>630</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>634</v>
+      </c>
+      <c r="W1" t="s">
         <v>554</v>
       </c>
-      <c r="T1" t="s">
+      <c r="X1" t="s">
         <v>555</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Y1" t="s">
         <v>574</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Z1" t="s">
         <v>575</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>590</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AC1" t="s">
         <v>576</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AD1" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2478,41 +2644,47 @@
       <c r="M2" t="s">
         <v>455</v>
       </c>
-      <c r="P2" t="s">
+      <c r="N2" t="s">
         <v>372</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" t="s">
+        <v>372</v>
+      </c>
+      <c r="R2">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>324</v>
       </c>
-      <c r="S2">
+      <c r="T2" t="s">
+        <v>372</v>
+      </c>
+      <c r="W2">
         <v>10</v>
       </c>
-      <c r="T2">
+      <c r="X2">
         <v>1</v>
       </c>
-      <c r="U2" t="s">
+      <c r="Y2" t="s">
         <v>556</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Z2" t="s">
         <v>383</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="AA2" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="AB2" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AC2" t="s">
         <v>387</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2553,46 +2725,55 @@
         <v>456</v>
       </c>
       <c r="N3" t="s">
+        <v>373</v>
+      </c>
+      <c r="O3" t="s">
         <v>302</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>304</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>373</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>324</v>
       </c>
-      <c r="S3">
+      <c r="T3" t="s">
+        <v>373</v>
+      </c>
+      <c r="V3" s="12">
+        <v>23.9</v>
+      </c>
+      <c r="W3">
         <v>10</v>
       </c>
-      <c r="T3">
+      <c r="X3">
         <v>1</v>
       </c>
-      <c r="U3" t="s">
+      <c r="Y3" t="s">
         <v>556</v>
       </c>
-      <c r="V3" t="s">
+      <c r="Z3" t="s">
         <v>382</v>
       </c>
-      <c r="W3" s="5" t="s">
+      <c r="AA3" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="X3" s="7" t="s">
+      <c r="AB3" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AC3" t="s">
         <v>390</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="AD3" s="3" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -2630,46 +2811,58 @@
         <v>457</v>
       </c>
       <c r="N4" t="s">
+        <v>374</v>
+      </c>
+      <c r="O4" t="s">
         <v>302</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>306</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>374</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>0.49030000000000001</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>325</v>
       </c>
-      <c r="S4">
+      <c r="T4" t="s">
+        <v>374</v>
+      </c>
+      <c r="U4" s="11">
+        <v>0.41374123337977797</v>
+      </c>
+      <c r="V4" s="12">
+        <v>24.8</v>
+      </c>
+      <c r="W4">
         <v>10</v>
       </c>
-      <c r="T4">
+      <c r="X4">
         <v>8</v>
       </c>
-      <c r="U4" t="s">
+      <c r="Y4" t="s">
         <v>557</v>
       </c>
-      <c r="V4" t="s">
+      <c r="Z4" t="s">
         <v>382</v>
       </c>
-      <c r="W4" s="10" t="s">
+      <c r="AA4" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="X4" s="5" t="s">
+      <c r="AB4" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AC4" t="s">
         <v>397</v>
       </c>
-      <c r="Z4" s="9" t="s">
+      <c r="AD4" s="9" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -2710,46 +2903,58 @@
         <v>458</v>
       </c>
       <c r="N5" t="s">
+        <v>326</v>
+      </c>
+      <c r="O5" t="s">
         <v>309</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>307</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>326</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>0.40139999999999998</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>325</v>
       </c>
-      <c r="S5">
+      <c r="T5" t="s">
+        <v>326</v>
+      </c>
+      <c r="U5" s="11">
+        <v>0.88082777400610002</v>
+      </c>
+      <c r="V5" s="12">
+        <v>28.8</v>
+      </c>
+      <c r="W5">
         <v>10</v>
       </c>
-      <c r="T5">
+      <c r="X5">
         <v>9</v>
       </c>
-      <c r="U5" t="s">
+      <c r="Y5" t="s">
         <v>577</v>
       </c>
-      <c r="V5" t="s">
+      <c r="Z5" t="s">
         <v>382</v>
       </c>
-      <c r="W5" s="5" t="s">
+      <c r="AA5" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="X5" s="7" t="s">
+      <c r="AB5" s="7" t="s">
         <v>591</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="AC5" t="s">
         <v>390</v>
       </c>
-      <c r="Z5" s="3" t="s">
+      <c r="AD5" s="3" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -2790,46 +2995,58 @@
         <v>459</v>
       </c>
       <c r="N6" t="s">
+        <v>375</v>
+      </c>
+      <c r="O6" t="s">
         <v>303</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>308</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>375</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>0.73180000000000001</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>327</v>
       </c>
-      <c r="S6">
+      <c r="T6" t="s">
+        <v>375</v>
+      </c>
+      <c r="U6" s="11">
+        <v>0.892141720615371</v>
+      </c>
+      <c r="V6" s="12">
+        <v>27.4</v>
+      </c>
+      <c r="W6">
         <v>10</v>
       </c>
-      <c r="T6">
+      <c r="X6">
         <v>10</v>
       </c>
-      <c r="U6" t="s">
+      <c r="Y6" t="s">
         <v>577</v>
       </c>
-      <c r="V6" t="s">
+      <c r="Z6" t="s">
         <v>383</v>
       </c>
-      <c r="W6" s="5" t="s">
+      <c r="AA6" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="X6" s="6" t="s">
+      <c r="AB6" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="AC6" t="s">
         <v>392</v>
       </c>
-      <c r="Z6" s="2" t="s">
+      <c r="AD6" s="2" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -2857,41 +3074,50 @@
       <c r="M7" t="s">
         <v>460</v>
       </c>
-      <c r="P7" t="s">
+      <c r="N7" t="s">
         <v>376</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" t="s">
+        <v>376</v>
+      </c>
+      <c r="R7">
         <v>0.9355</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>327</v>
       </c>
-      <c r="S7">
+      <c r="T7" t="s">
+        <v>376</v>
+      </c>
+      <c r="U7" s="11">
+        <v>0.47188469729597998</v>
+      </c>
+      <c r="W7">
         <v>10</v>
       </c>
-      <c r="T7">
+      <c r="X7">
         <v>8</v>
       </c>
-      <c r="U7" t="s">
+      <c r="Y7" t="s">
         <v>578</v>
       </c>
-      <c r="V7" t="s">
+      <c r="Z7" t="s">
         <v>382</v>
       </c>
-      <c r="W7" s="5" t="s">
+      <c r="AA7" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="X7" s="6" t="s">
+      <c r="AB7" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="AC7" t="s">
         <v>390</v>
       </c>
-      <c r="Z7" s="2" t="s">
+      <c r="AD7" s="2" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -2929,46 +3155,58 @@
         <v>461</v>
       </c>
       <c r="N8" t="s">
+        <v>377</v>
+      </c>
+      <c r="O8" t="s">
         <v>302</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>306</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>377</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>0.998</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>327</v>
       </c>
-      <c r="S8">
+      <c r="T8" t="s">
+        <v>377</v>
+      </c>
+      <c r="U8" s="11">
+        <v>0.89615091700475302</v>
+      </c>
+      <c r="V8" s="12">
+        <v>29.1</v>
+      </c>
+      <c r="W8">
         <v>10</v>
       </c>
-      <c r="T8">
+      <c r="X8">
         <v>9</v>
       </c>
-      <c r="U8" t="s">
+      <c r="Y8" t="s">
         <v>558</v>
       </c>
-      <c r="V8" t="s">
+      <c r="Z8" t="s">
         <v>382</v>
       </c>
-      <c r="W8" s="5" t="s">
+      <c r="AA8" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X8" s="8" t="s">
+      <c r="AB8" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="AC8" t="s">
         <v>451</v>
       </c>
-      <c r="Z8" s="4" t="s">
+      <c r="AD8" s="4" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -3009,46 +3247,58 @@
         <v>462</v>
       </c>
       <c r="N9" t="s">
+        <v>378</v>
+      </c>
+      <c r="O9" t="s">
         <v>309</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>304</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>378</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>0.72219999999999995</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>327</v>
       </c>
-      <c r="S9">
+      <c r="T9" t="s">
+        <v>378</v>
+      </c>
+      <c r="U9" s="11">
+        <v>0.537770770480268</v>
+      </c>
+      <c r="V9" s="12">
+        <v>16.45</v>
+      </c>
+      <c r="W9">
         <v>10</v>
       </c>
-      <c r="T9">
+      <c r="X9">
         <v>8</v>
       </c>
-      <c r="U9" t="s">
+      <c r="Y9" t="s">
         <v>558</v>
       </c>
-      <c r="V9" t="s">
+      <c r="Z9" t="s">
         <v>382</v>
       </c>
-      <c r="W9" s="5" t="s">
+      <c r="AA9" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="X9" s="7" t="s">
+      <c r="AB9" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="AC9" t="s">
         <v>452</v>
       </c>
-      <c r="Z9" s="3" t="s">
+      <c r="AD9" s="3" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -3086,46 +3336,58 @@
         <v>463</v>
       </c>
       <c r="N10" t="s">
+        <v>379</v>
+      </c>
+      <c r="O10" t="s">
         <v>302</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>310</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>379</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>0.96699999999999997</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>327</v>
       </c>
-      <c r="S10">
+      <c r="T10" t="s">
+        <v>379</v>
+      </c>
+      <c r="U10" s="11">
+        <v>0.90926520620487605</v>
+      </c>
+      <c r="V10" s="12">
+        <v>26</v>
+      </c>
+      <c r="W10">
         <v>10</v>
       </c>
-      <c r="T10">
+      <c r="X10">
         <v>9</v>
       </c>
-      <c r="U10" t="s">
+      <c r="Y10" t="s">
         <v>579</v>
       </c>
-      <c r="V10" t="s">
+      <c r="Z10" t="s">
         <v>382</v>
       </c>
-      <c r="W10" s="5" t="s">
+      <c r="AA10" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="X10" s="6" t="s">
+      <c r="AB10" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="AC10" t="s">
         <v>390</v>
       </c>
-      <c r="Z10" s="2" t="s">
+      <c r="AD10" s="2" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -3163,46 +3425,58 @@
         <v>464</v>
       </c>
       <c r="N11" t="s">
+        <v>380</v>
+      </c>
+      <c r="O11" t="s">
         <v>302</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>306</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>380</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>0.72889999999999999</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>327</v>
       </c>
-      <c r="S11">
+      <c r="T11" t="s">
+        <v>380</v>
+      </c>
+      <c r="U11" s="11">
+        <v>0.78029621979257802</v>
+      </c>
+      <c r="V11" s="12">
+        <v>24.9</v>
+      </c>
+      <c r="W11">
         <v>10</v>
       </c>
-      <c r="T11">
+      <c r="X11">
         <v>9</v>
       </c>
-      <c r="U11" t="s">
+      <c r="Y11" t="s">
         <v>579</v>
       </c>
-      <c r="V11" t="s">
+      <c r="Z11" t="s">
         <v>382</v>
       </c>
-      <c r="W11" s="10" t="s">
+      <c r="AA11" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="X11" s="5" t="s">
+      <c r="AB11" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="AC11" t="s">
         <v>421</v>
       </c>
-      <c r="Z11" s="9" t="s">
+      <c r="AD11" s="9" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -3236,41 +3510,50 @@
       <c r="M12" t="s">
         <v>465</v>
       </c>
-      <c r="P12" t="s">
+      <c r="N12" t="s">
         <v>381</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" t="s">
+        <v>381</v>
+      </c>
+      <c r="R12">
         <v>0.84589999999999999</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>327</v>
       </c>
-      <c r="S12">
+      <c r="T12" t="s">
+        <v>381</v>
+      </c>
+      <c r="U12" s="11">
+        <v>0.888371229412665</v>
+      </c>
+      <c r="W12">
         <v>10</v>
       </c>
-      <c r="T12">
+      <c r="X12">
         <v>10</v>
       </c>
-      <c r="U12" t="s">
+      <c r="Y12" t="s">
         <v>579</v>
       </c>
-      <c r="V12" t="s">
+      <c r="Z12" t="s">
         <v>382</v>
       </c>
-      <c r="W12" s="10" t="s">
+      <c r="AA12" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="X12" s="5" t="s">
+      <c r="AB12" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="AC12" t="s">
         <v>390</v>
       </c>
-      <c r="Z12" s="9" t="s">
+      <c r="AD12" s="9" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -3308,46 +3591,58 @@
         <v>466</v>
       </c>
       <c r="N13" t="s">
+        <v>328</v>
+      </c>
+      <c r="O13" t="s">
         <v>302</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>306</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>328</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>0.99909999999999999</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>327</v>
       </c>
-      <c r="S13">
+      <c r="T13" t="s">
+        <v>328</v>
+      </c>
+      <c r="U13" s="11">
+        <v>0.91068765706085297</v>
+      </c>
+      <c r="V13" s="12">
+        <v>21.5</v>
+      </c>
+      <c r="W13">
         <v>10</v>
       </c>
-      <c r="T13">
+      <c r="X13">
         <v>9</v>
       </c>
-      <c r="U13" t="s">
+      <c r="Y13" t="s">
         <v>559</v>
       </c>
-      <c r="V13" t="s">
+      <c r="Z13" t="s">
         <v>383</v>
       </c>
-      <c r="W13" s="5" t="s">
+      <c r="AA13" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X13" s="6" t="s">
+      <c r="AB13" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="AC13" t="s">
         <v>390</v>
       </c>
-      <c r="Z13" s="2" t="s">
+      <c r="AD13" s="2" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -3385,46 +3680,58 @@
         <v>467</v>
       </c>
       <c r="N14" t="s">
+        <v>329</v>
+      </c>
+      <c r="O14" t="s">
         <v>302</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>310</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>329</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>0.86839999999999995</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>327</v>
       </c>
-      <c r="S14">
+      <c r="T14" t="s">
+        <v>329</v>
+      </c>
+      <c r="U14" s="11">
+        <v>0.88607470763999796</v>
+      </c>
+      <c r="V14" s="12">
+        <v>26.5</v>
+      </c>
+      <c r="W14">
         <v>10</v>
       </c>
-      <c r="T14">
+      <c r="X14">
         <v>9</v>
       </c>
-      <c r="U14" t="s">
+      <c r="Y14" t="s">
         <v>580</v>
       </c>
-      <c r="V14" t="s">
+      <c r="Z14" t="s">
         <v>382</v>
       </c>
-      <c r="W14" s="5" t="s">
+      <c r="AA14" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="X14" s="7" t="s">
+      <c r="AB14" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="AC14" t="s">
         <v>390</v>
       </c>
-      <c r="Z14" s="3" t="s">
+      <c r="AD14" s="3" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -3465,46 +3772,58 @@
         <v>468</v>
       </c>
       <c r="N15" t="s">
+        <v>330</v>
+      </c>
+      <c r="O15" t="s">
         <v>309</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>304</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>330</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>8.0100000000000005E-2</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>324</v>
       </c>
-      <c r="S15">
+      <c r="T15" t="s">
+        <v>330</v>
+      </c>
+      <c r="U15" s="11">
+        <v>0.204947684977344</v>
+      </c>
+      <c r="V15" s="12">
+        <v>19.87</v>
+      </c>
+      <c r="W15">
         <v>10</v>
       </c>
-      <c r="T15">
+      <c r="X15">
         <v>6</v>
       </c>
-      <c r="U15" t="s">
+      <c r="Y15" t="s">
         <v>580</v>
       </c>
-      <c r="V15" t="s">
+      <c r="Z15" t="s">
         <v>382</v>
       </c>
-      <c r="W15" s="5" t="s">
+      <c r="AA15" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="X15" s="7" t="s">
+      <c r="AB15" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="AC15" t="s">
         <v>422</v>
       </c>
-      <c r="Z15" s="3" t="s">
+      <c r="AD15" s="3" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -3545,46 +3864,58 @@
         <v>469</v>
       </c>
       <c r="N16" t="s">
+        <v>331</v>
+      </c>
+      <c r="O16" t="s">
         <v>302</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>312</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>331</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>0.43659999999999999</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>325</v>
       </c>
-      <c r="S16">
+      <c r="T16" t="s">
+        <v>331</v>
+      </c>
+      <c r="U16" s="11">
+        <v>0.29266299271677199</v>
+      </c>
+      <c r="V16" s="12">
+        <v>22.7</v>
+      </c>
+      <c r="W16">
         <v>10</v>
       </c>
-      <c r="T16">
+      <c r="X16">
         <v>6</v>
       </c>
-      <c r="U16" t="s">
+      <c r="Y16" t="s">
         <v>580</v>
       </c>
-      <c r="V16" t="s">
+      <c r="Z16" t="s">
         <v>382</v>
       </c>
-      <c r="W16" s="5" t="s">
+      <c r="AA16" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="X16" s="6" t="s">
+      <c r="AB16" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="AC16" t="s">
         <v>390</v>
       </c>
-      <c r="Z16" s="2" t="s">
+      <c r="AD16" s="2" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -3622,46 +3953,58 @@
         <v>470</v>
       </c>
       <c r="N17" t="s">
+        <v>332</v>
+      </c>
+      <c r="O17" t="s">
         <v>302</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>313</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>332</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>0.67420000000000002</v>
       </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
         <v>327</v>
       </c>
-      <c r="S17">
+      <c r="T17" t="s">
+        <v>332</v>
+      </c>
+      <c r="U17" s="11">
+        <v>0.36819966317174802</v>
+      </c>
+      <c r="V17" s="12">
+        <v>25.6</v>
+      </c>
+      <c r="W17">
         <v>10</v>
       </c>
-      <c r="T17">
+      <c r="X17">
         <v>8</v>
       </c>
-      <c r="U17" t="s">
+      <c r="Y17" t="s">
         <v>580</v>
       </c>
-      <c r="V17" t="s">
+      <c r="Z17" t="s">
         <v>382</v>
       </c>
-      <c r="W17" s="5" t="s">
+      <c r="AA17" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="X17" s="6" t="s">
+      <c r="AB17" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="AC17" t="s">
         <v>390</v>
       </c>
-      <c r="Z17" s="2" t="s">
+      <c r="AD17" s="2" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -3702,46 +4045,58 @@
         <v>471</v>
       </c>
       <c r="N18" t="s">
+        <v>334</v>
+      </c>
+      <c r="O18" t="s">
         <v>309</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>314</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>334</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>0.17150000000000001</v>
       </c>
-      <c r="R18" t="s">
+      <c r="S18" t="s">
         <v>324</v>
       </c>
-      <c r="S18">
+      <c r="T18" t="s">
+        <v>334</v>
+      </c>
+      <c r="U18" s="11">
+        <v>0.217902343950203</v>
+      </c>
+      <c r="V18" s="12">
+        <v>25.1</v>
+      </c>
+      <c r="W18">
         <v>10</v>
       </c>
-      <c r="T18">
+      <c r="X18">
         <v>1</v>
       </c>
-      <c r="U18" t="s">
+      <c r="Y18" t="s">
         <v>580</v>
       </c>
-      <c r="V18" t="s">
+      <c r="Z18" t="s">
         <v>382</v>
       </c>
-      <c r="W18" s="5" t="s">
+      <c r="AA18" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="X18" s="7" t="s">
+      <c r="AB18" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="AC18" t="s">
         <v>405</v>
       </c>
-      <c r="Z18" s="3" t="s">
+      <c r="AD18" s="3" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -3782,46 +4137,58 @@
         <v>472</v>
       </c>
       <c r="N19" t="s">
+        <v>636</v>
+      </c>
+      <c r="O19" t="s">
         <v>309</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>315</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>335</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>6.8599999999999994E-2</v>
       </c>
-      <c r="R19" t="s">
+      <c r="S19" t="s">
         <v>324</v>
       </c>
-      <c r="S19">
+      <c r="T19" t="s">
+        <v>335</v>
+      </c>
+      <c r="U19" s="11">
+        <v>0.11336233975207299</v>
+      </c>
+      <c r="V19" s="12">
+        <v>13.2</v>
+      </c>
+      <c r="W19">
         <v>10</v>
       </c>
-      <c r="T19">
+      <c r="X19">
         <v>3</v>
       </c>
-      <c r="U19" t="s">
+      <c r="Y19" t="s">
         <v>580</v>
       </c>
-      <c r="V19" t="s">
+      <c r="Z19" t="s">
         <v>382</v>
       </c>
-      <c r="W19" s="5" t="s">
+      <c r="AA19" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="X19" s="7" t="s">
+      <c r="AB19" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="AC19" t="s">
         <v>405</v>
       </c>
-      <c r="Z19" s="3" t="s">
+      <c r="AD19" s="3" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -3862,46 +4229,58 @@
         <v>473</v>
       </c>
       <c r="N20" t="s">
+        <v>637</v>
+      </c>
+      <c r="O20" t="s">
         <v>309</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>304</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>336</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>0.94199999999999995</v>
       </c>
-      <c r="R20" t="s">
+      <c r="S20" t="s">
         <v>327</v>
       </c>
-      <c r="S20">
+      <c r="T20" t="s">
+        <v>336</v>
+      </c>
+      <c r="U20" s="11">
+        <v>0.74597091301579799</v>
+      </c>
+      <c r="V20" s="12">
+        <v>26.2</v>
+      </c>
+      <c r="W20">
         <v>10</v>
       </c>
-      <c r="T20">
+      <c r="X20">
         <v>10</v>
       </c>
-      <c r="U20" t="s">
+      <c r="Y20" t="s">
         <v>580</v>
       </c>
-      <c r="V20" t="s">
+      <c r="Z20" t="s">
         <v>382</v>
       </c>
-      <c r="W20" s="5" t="s">
+      <c r="AA20" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="X20" s="6" t="s">
+      <c r="AB20" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="AC20" t="s">
         <v>390</v>
       </c>
-      <c r="Z20" s="2" t="s">
+      <c r="AD20" s="2" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -3942,46 +4321,58 @@
         <v>473</v>
       </c>
       <c r="N21" t="s">
+        <v>637</v>
+      </c>
+      <c r="O21" t="s">
         <v>309</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>304</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>336</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>0.94199999999999995</v>
       </c>
-      <c r="R21" t="s">
+      <c r="S21" t="s">
         <v>327</v>
       </c>
-      <c r="S21">
+      <c r="T21" t="s">
+        <v>336</v>
+      </c>
+      <c r="U21" s="11">
+        <v>0.74597091301579799</v>
+      </c>
+      <c r="V21" s="12">
+        <v>26.2</v>
+      </c>
+      <c r="W21">
         <v>10</v>
       </c>
-      <c r="T21">
+      <c r="X21">
         <v>10</v>
       </c>
-      <c r="U21" t="s">
+      <c r="Y21" t="s">
         <v>580</v>
       </c>
-      <c r="V21" t="s">
+      <c r="Z21" t="s">
         <v>382</v>
       </c>
-      <c r="W21" s="5" t="s">
+      <c r="AA21" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="X21" s="6" t="s">
+      <c r="AB21" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="AC21" t="s">
         <v>390</v>
       </c>
-      <c r="Z21" s="2" t="s">
+      <c r="AD21" s="2" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -4022,46 +4413,58 @@
         <v>474</v>
       </c>
       <c r="N22" t="s">
+        <v>638</v>
+      </c>
+      <c r="O22" t="s">
         <v>311</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>307</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>337</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>0.16239999999999999</v>
       </c>
-      <c r="R22" t="s">
+      <c r="S22" t="s">
         <v>324</v>
       </c>
-      <c r="S22">
+      <c r="T22" t="s">
+        <v>337</v>
+      </c>
+      <c r="U22" s="11">
+        <v>0.217650337180463</v>
+      </c>
+      <c r="V22" s="12">
+        <v>23.8</v>
+      </c>
+      <c r="W22">
         <v>10</v>
       </c>
-      <c r="T22">
+      <c r="X22">
         <v>2</v>
       </c>
-      <c r="U22" t="s">
+      <c r="Y22" t="s">
         <v>580</v>
       </c>
-      <c r="V22" t="s">
+      <c r="Z22" t="s">
         <v>382</v>
       </c>
-      <c r="W22" s="5" t="s">
+      <c r="AA22" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="X22" s="6" t="s">
+      <c r="AB22" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="AC22" t="s">
         <v>390</v>
       </c>
-      <c r="Z22" s="9" t="s">
+      <c r="AD22" s="9" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -4102,46 +4505,58 @@
         <v>475</v>
       </c>
       <c r="N23" t="s">
+        <v>639</v>
+      </c>
+      <c r="O23" t="s">
         <v>302</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>316</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>338</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>0.1153</v>
       </c>
-      <c r="R23" t="s">
+      <c r="S23" t="s">
         <v>324</v>
       </c>
-      <c r="S23">
+      <c r="T23" t="s">
+        <v>338</v>
+      </c>
+      <c r="U23" s="11">
+        <v>0.376483184413344</v>
+      </c>
+      <c r="V23" s="12">
+        <v>23.7</v>
+      </c>
+      <c r="W23">
         <v>10</v>
       </c>
-      <c r="T23">
+      <c r="X23">
         <v>9</v>
       </c>
-      <c r="U23" t="s">
+      <c r="Y23" t="s">
         <v>560</v>
       </c>
-      <c r="V23" t="s">
+      <c r="Z23" t="s">
         <v>382</v>
       </c>
-      <c r="W23" s="5" t="s">
+      <c r="AA23" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="X23" s="6" t="s">
+      <c r="AB23" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="AC23" t="s">
         <v>390</v>
       </c>
-      <c r="Z23" s="2" t="s">
+      <c r="AD23" s="2" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -4182,46 +4597,58 @@
         <v>476</v>
       </c>
       <c r="N24" t="s">
+        <v>640</v>
+      </c>
+      <c r="O24" t="s">
         <v>309</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>315</v>
       </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
         <v>339</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>0.1749</v>
       </c>
-      <c r="R24" t="s">
+      <c r="S24" t="s">
         <v>324</v>
       </c>
-      <c r="S24">
+      <c r="T24" t="s">
+        <v>339</v>
+      </c>
+      <c r="U24" s="11">
+        <v>9.6226153917216298E-2</v>
+      </c>
+      <c r="V24" s="12">
+        <v>19.62</v>
+      </c>
+      <c r="W24">
         <v>9</v>
       </c>
-      <c r="T24">
+      <c r="X24">
         <v>3</v>
       </c>
-      <c r="U24" t="s">
+      <c r="Y24" t="s">
         <v>561</v>
       </c>
-      <c r="V24" t="s">
+      <c r="Z24" t="s">
         <v>382</v>
       </c>
-      <c r="W24" s="5" t="s">
+      <c r="AA24" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="X24" s="6" t="s">
+      <c r="AB24" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="AC24" t="s">
         <v>410</v>
       </c>
-      <c r="Z24" s="2" t="s">
+      <c r="AD24" s="2" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -4259,46 +4686,58 @@
         <v>477</v>
       </c>
       <c r="N25" t="s">
+        <v>641</v>
+      </c>
+      <c r="O25" t="s">
         <v>302</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>306</v>
       </c>
-      <c r="P25" t="s">
+      <c r="Q25" t="s">
         <v>340</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>0.98699999999999999</v>
       </c>
-      <c r="R25" t="s">
+      <c r="S25" t="s">
         <v>327</v>
       </c>
-      <c r="S25">
+      <c r="T25" t="s">
+        <v>340</v>
+      </c>
+      <c r="U25" s="11">
+        <v>0.84331671694351296</v>
+      </c>
+      <c r="V25" s="12">
+        <v>27.1</v>
+      </c>
+      <c r="W25">
         <v>10</v>
       </c>
-      <c r="T25">
+      <c r="X25">
         <v>10</v>
       </c>
-      <c r="U25" t="s">
+      <c r="Y25" t="s">
         <v>562</v>
       </c>
-      <c r="V25" t="s">
+      <c r="Z25" t="s">
         <v>382</v>
       </c>
-      <c r="W25" s="7" t="s">
+      <c r="AA25" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="X25" s="7" t="s">
+      <c r="AB25" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="AC25" t="s">
         <v>454</v>
       </c>
-      <c r="Z25" s="3" t="s">
+      <c r="AD25" s="3" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -4326,41 +4765,50 @@
       <c r="M26" t="s">
         <v>478</v>
       </c>
-      <c r="P26" t="s">
+      <c r="N26" t="s">
+        <v>642</v>
+      </c>
+      <c r="Q26" t="s">
         <v>341</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>0.90980000000000005</v>
       </c>
-      <c r="R26" t="s">
+      <c r="S26" t="s">
         <v>327</v>
       </c>
-      <c r="S26">
+      <c r="T26" t="s">
+        <v>341</v>
+      </c>
+      <c r="U26" s="11">
+        <v>0.85261466921905704</v>
+      </c>
+      <c r="W26">
         <v>10</v>
       </c>
-      <c r="T26">
+      <c r="X26">
         <v>10</v>
       </c>
-      <c r="U26" t="s">
+      <c r="Y26" t="s">
         <v>562</v>
       </c>
-      <c r="V26" t="s">
+      <c r="Z26" t="s">
         <v>382</v>
       </c>
-      <c r="W26" s="5" t="s">
+      <c r="AA26" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="X26" s="7" t="s">
+      <c r="AB26" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="AC26" t="s">
         <v>390</v>
       </c>
-      <c r="Z26" s="3" t="s">
+      <c r="AD26" s="3" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -4398,46 +4846,58 @@
         <v>479</v>
       </c>
       <c r="N27" t="s">
+        <v>643</v>
+      </c>
+      <c r="O27" t="s">
         <v>302</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>310</v>
       </c>
-      <c r="P27" t="s">
+      <c r="Q27" t="s">
         <v>414</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>0.77959999999999996</v>
       </c>
-      <c r="R27" t="s">
+      <c r="S27" t="s">
         <v>327</v>
       </c>
-      <c r="S27">
+      <c r="T27" t="s">
+        <v>414</v>
+      </c>
+      <c r="U27" s="11">
+        <v>0.61400195934506596</v>
+      </c>
+      <c r="V27" s="12">
+        <v>26</v>
+      </c>
+      <c r="W27">
         <v>10</v>
       </c>
-      <c r="T27">
+      <c r="X27">
         <v>9</v>
       </c>
-      <c r="U27" t="s">
+      <c r="Y27" t="s">
         <v>581</v>
       </c>
-      <c r="V27" t="s">
+      <c r="Z27" t="s">
         <v>382</v>
       </c>
-      <c r="W27" s="5" t="s">
+      <c r="AA27" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="X27" s="7" t="s">
+      <c r="AB27" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="AC27" t="s">
         <v>418</v>
       </c>
-      <c r="Z27" s="3" t="s">
+      <c r="AD27" s="3" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -4475,46 +4935,58 @@
         <v>480</v>
       </c>
       <c r="N28" t="s">
+        <v>644</v>
+      </c>
+      <c r="O28" t="s">
         <v>303</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>305</v>
       </c>
-      <c r="P28" t="s">
+      <c r="Q28" t="s">
         <v>342</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>0.99790000000000001</v>
       </c>
-      <c r="R28" t="s">
+      <c r="S28" t="s">
         <v>327</v>
       </c>
-      <c r="S28">
+      <c r="T28" t="s">
+        <v>342</v>
+      </c>
+      <c r="U28" s="11">
+        <v>0.36164658031021901</v>
+      </c>
+      <c r="V28" s="12">
+        <v>23.9</v>
+      </c>
+      <c r="W28">
         <v>10</v>
       </c>
-      <c r="T28">
+      <c r="X28">
         <v>9</v>
       </c>
-      <c r="U28" t="s">
+      <c r="Y28" t="s">
         <v>563</v>
       </c>
-      <c r="V28" t="s">
+      <c r="Z28" t="s">
         <v>382</v>
       </c>
-      <c r="W28" s="5" t="s">
+      <c r="AA28" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="X28" s="7" t="s">
+      <c r="AB28" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="AC28" t="s">
         <v>390</v>
       </c>
-      <c r="Z28" s="3" t="s">
+      <c r="AD28" s="3" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -4552,43 +5024,55 @@
         <v>481</v>
       </c>
       <c r="N29" t="s">
+        <v>645</v>
+      </c>
+      <c r="O29" t="s">
         <v>317</v>
       </c>
-      <c r="P29" t="s">
+      <c r="Q29" t="s">
         <v>343</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>0.99870000000000003</v>
       </c>
-      <c r="R29" t="s">
+      <c r="S29" t="s">
         <v>327</v>
       </c>
-      <c r="S29">
+      <c r="T29" t="s">
+        <v>343</v>
+      </c>
+      <c r="U29" s="11">
+        <v>0.74381361532949697</v>
+      </c>
+      <c r="V29" s="12">
+        <v>23.4</v>
+      </c>
+      <c r="W29">
         <v>10</v>
       </c>
-      <c r="T29">
+      <c r="X29">
         <v>9</v>
       </c>
-      <c r="U29" t="s">
+      <c r="Y29" t="s">
         <v>563</v>
       </c>
-      <c r="V29" t="s">
+      <c r="Z29" t="s">
         <v>382</v>
       </c>
-      <c r="W29" s="5" t="s">
+      <c r="AA29" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="X29" s="7" t="s">
+      <c r="AB29" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="AC29" t="s">
         <v>390</v>
       </c>
-      <c r="Z29" s="3" t="s">
+      <c r="AD29" s="3" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -4626,46 +5110,58 @@
         <v>482</v>
       </c>
       <c r="N30" t="s">
+        <v>646</v>
+      </c>
+      <c r="O30" t="s">
         <v>302</v>
       </c>
-      <c r="O30" t="s">
+      <c r="P30" t="s">
         <v>310</v>
       </c>
-      <c r="P30" t="s">
+      <c r="Q30" t="s">
         <v>344</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>0.99929999999999997</v>
       </c>
-      <c r="R30" t="s">
+      <c r="S30" t="s">
         <v>327</v>
       </c>
-      <c r="S30">
+      <c r="T30" t="s">
+        <v>344</v>
+      </c>
+      <c r="U30" s="11">
+        <v>0.91649206580721598</v>
+      </c>
+      <c r="V30" s="12">
+        <v>24.8</v>
+      </c>
+      <c r="W30">
         <v>10</v>
       </c>
-      <c r="T30">
+      <c r="X30">
         <v>10</v>
       </c>
-      <c r="U30" t="s">
+      <c r="Y30" t="s">
         <v>563</v>
       </c>
-      <c r="V30" t="s">
+      <c r="Z30" t="s">
         <v>382</v>
       </c>
-      <c r="W30" s="5" t="s">
+      <c r="AA30" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="X30" s="7" t="s">
+      <c r="AB30" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="AC30" t="s">
         <v>419</v>
       </c>
-      <c r="Z30" s="3" t="s">
+      <c r="AD30" s="3" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -4703,46 +5199,58 @@
         <v>483</v>
       </c>
       <c r="N31" t="s">
+        <v>647</v>
+      </c>
+      <c r="O31" t="s">
         <v>302</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
         <v>306</v>
       </c>
-      <c r="P31" t="s">
+      <c r="Q31" t="s">
         <v>345</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>0.99409999999999998</v>
       </c>
-      <c r="R31" t="s">
+      <c r="S31" t="s">
         <v>327</v>
       </c>
-      <c r="S31">
+      <c r="T31" t="s">
+        <v>345</v>
+      </c>
+      <c r="U31" s="11">
+        <v>0.90552859944660002</v>
+      </c>
+      <c r="V31" s="12">
+        <v>23.4</v>
+      </c>
+      <c r="W31">
         <v>10</v>
       </c>
-      <c r="T31">
+      <c r="X31">
         <v>10</v>
       </c>
-      <c r="U31" t="s">
+      <c r="Y31" t="s">
         <v>563</v>
       </c>
-      <c r="V31" t="s">
+      <c r="Z31" t="s">
         <v>382</v>
       </c>
-      <c r="W31" s="5" t="s">
+      <c r="AA31" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="X31" s="6" t="s">
+      <c r="AB31" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="AC31" t="s">
         <v>420</v>
       </c>
-      <c r="Z31" s="2" t="s">
+      <c r="AD31" s="2" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -4780,46 +5288,58 @@
         <v>484</v>
       </c>
       <c r="N32" t="s">
+        <v>648</v>
+      </c>
+      <c r="O32" t="s">
         <v>302</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P32" t="s">
         <v>306</v>
       </c>
-      <c r="P32" t="s">
+      <c r="Q32" t="s">
         <v>346</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>0.99619999999999997</v>
       </c>
-      <c r="R32" t="s">
+      <c r="S32" t="s">
         <v>327</v>
       </c>
-      <c r="S32">
+      <c r="T32" t="s">
+        <v>346</v>
+      </c>
+      <c r="U32" s="11">
+        <v>0.62064625631062698</v>
+      </c>
+      <c r="V32" s="12">
+        <v>26.5</v>
+      </c>
+      <c r="W32">
         <v>10</v>
       </c>
-      <c r="T32">
+      <c r="X32">
         <v>8</v>
       </c>
-      <c r="U32" t="s">
+      <c r="Y32" t="s">
         <v>563</v>
       </c>
-      <c r="V32" t="s">
+      <c r="Z32" t="s">
         <v>382</v>
       </c>
-      <c r="W32" s="5" t="s">
+      <c r="AA32" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="X32" s="7" t="s">
+      <c r="AB32" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="AC32" t="s">
         <v>390</v>
       </c>
-      <c r="Z32" s="3" t="s">
+      <c r="AD32" s="3" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -4848,46 +5368,55 @@
         <v>485</v>
       </c>
       <c r="N33" t="s">
+        <v>649</v>
+      </c>
+      <c r="O33" t="s">
         <v>303</v>
       </c>
-      <c r="O33" t="s">
+      <c r="P33" t="s">
         <v>310</v>
       </c>
-      <c r="P33" t="s">
+      <c r="Q33" t="s">
         <v>347</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>0.90700000000000003</v>
       </c>
-      <c r="R33" t="s">
+      <c r="S33" t="s">
         <v>327</v>
       </c>
-      <c r="S33">
+      <c r="T33" t="s">
+        <v>347</v>
+      </c>
+      <c r="U33" s="11">
+        <v>0.70648717464309796</v>
+      </c>
+      <c r="W33">
         <v>10</v>
       </c>
-      <c r="T33">
+      <c r="X33">
         <v>9</v>
       </c>
-      <c r="U33" t="s">
+      <c r="Y33" t="s">
         <v>563</v>
       </c>
-      <c r="V33" t="s">
+      <c r="Z33" t="s">
         <v>382</v>
       </c>
-      <c r="W33" s="5" t="s">
+      <c r="AA33" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="X33" s="7" t="s">
+      <c r="AB33" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="AC33" t="s">
         <v>390</v>
       </c>
-      <c r="Z33" s="3" t="s">
+      <c r="AD33" s="3" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -4915,41 +5444,50 @@
       <c r="M34" t="s">
         <v>486</v>
       </c>
-      <c r="P34" t="s">
+      <c r="N34" t="s">
+        <v>650</v>
+      </c>
+      <c r="Q34" t="s">
         <v>348</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>0.78300000000000003</v>
       </c>
-      <c r="R34" t="s">
+      <c r="S34" t="s">
         <v>327</v>
       </c>
-      <c r="S34">
+      <c r="T34" t="s">
+        <v>348</v>
+      </c>
+      <c r="U34" s="11">
+        <v>0.83871288770736496</v>
+      </c>
+      <c r="W34">
         <v>10</v>
       </c>
-      <c r="T34">
+      <c r="X34">
         <v>9</v>
       </c>
-      <c r="U34" t="s">
+      <c r="Y34" t="s">
         <v>582</v>
       </c>
-      <c r="V34" t="s">
+      <c r="Z34" t="s">
         <v>382</v>
       </c>
-      <c r="W34" s="5" t="s">
+      <c r="AA34" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="X34" s="7" t="s">
+      <c r="AB34" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="AC34" t="s">
         <v>426</v>
       </c>
-      <c r="Z34" s="3" t="s">
+      <c r="AD34" s="3" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -4989,41 +5527,53 @@
       <c r="M35" t="s">
         <v>487</v>
       </c>
-      <c r="P35" t="s">
+      <c r="N35" t="s">
+        <v>651</v>
+      </c>
+      <c r="Q35" t="s">
         <v>429</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>0.12959999999999999</v>
       </c>
-      <c r="R35" t="s">
+      <c r="S35" t="s">
         <v>324</v>
       </c>
-      <c r="S35">
+      <c r="T35" t="s">
+        <v>429</v>
+      </c>
+      <c r="U35" s="11">
+        <v>0.154658081006498</v>
+      </c>
+      <c r="V35" s="12">
+        <v>22.5</v>
+      </c>
+      <c r="W35">
         <v>10</v>
       </c>
-      <c r="T35">
+      <c r="X35">
         <v>6</v>
       </c>
-      <c r="U35" t="s">
+      <c r="Y35" t="s">
         <v>583</v>
       </c>
-      <c r="V35" t="s">
+      <c r="Z35" t="s">
         <v>382</v>
       </c>
-      <c r="W35" s="5" t="s">
+      <c r="AA35" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="X35" s="7" t="s">
+      <c r="AB35" s="7" t="s">
         <v>591</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="AC35" t="s">
         <v>431</v>
       </c>
-      <c r="Z35" s="3" t="s">
+      <c r="AD35" s="3" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -5054,32 +5604,35 @@
       <c r="M36" t="s">
         <v>488</v>
       </c>
-      <c r="S36">
+      <c r="N36" t="s">
+        <v>652</v>
+      </c>
+      <c r="W36">
         <v>10</v>
       </c>
-      <c r="T36">
+      <c r="X36">
         <v>9</v>
       </c>
-      <c r="U36" t="s">
+      <c r="Y36" t="s">
         <v>564</v>
       </c>
-      <c r="V36" t="s">
+      <c r="Z36" t="s">
         <v>382</v>
       </c>
-      <c r="W36" s="5" t="s">
+      <c r="AA36" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="X36" s="6" t="s">
+      <c r="AB36" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="AC36" t="s">
         <v>390</v>
       </c>
-      <c r="Z36" s="2" t="s">
+      <c r="AD36" s="2" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -5120,46 +5673,58 @@
         <v>489</v>
       </c>
       <c r="N37" t="s">
+        <v>653</v>
+      </c>
+      <c r="O37" t="s">
         <v>302</v>
       </c>
-      <c r="O37" t="s">
+      <c r="P37" t="s">
         <v>307</v>
       </c>
-      <c r="P37" t="s">
+      <c r="Q37" t="s">
         <v>349</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>0.1125</v>
       </c>
-      <c r="R37" t="s">
+      <c r="S37" t="s">
         <v>324</v>
       </c>
-      <c r="S37">
+      <c r="T37" t="s">
+        <v>349</v>
+      </c>
+      <c r="U37" s="11">
+        <v>0.16274826670463799</v>
+      </c>
+      <c r="V37" s="12">
+        <v>13.59</v>
+      </c>
+      <c r="W37">
         <v>10</v>
       </c>
-      <c r="T37">
+      <c r="X37">
         <v>7</v>
       </c>
-      <c r="U37" t="s">
+      <c r="Y37" t="s">
         <v>584</v>
       </c>
-      <c r="V37" t="s">
+      <c r="Z37" t="s">
         <v>382</v>
       </c>
-      <c r="W37" s="5" t="s">
+      <c r="AA37" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="X37" s="7" t="s">
+      <c r="AB37" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="AC37" t="s">
         <v>431</v>
       </c>
-      <c r="Z37" s="3" t="s">
+      <c r="AD37" s="3" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -5200,46 +5765,58 @@
         <v>490</v>
       </c>
       <c r="N38" t="s">
+        <v>654</v>
+      </c>
+      <c r="O38" t="s">
         <v>302</v>
       </c>
-      <c r="O38" t="s">
+      <c r="P38" t="s">
         <v>318</v>
       </c>
-      <c r="P38" t="s">
+      <c r="Q38" t="s">
         <v>350</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>0.106</v>
       </c>
-      <c r="R38" t="s">
+      <c r="S38" t="s">
         <v>324</v>
       </c>
-      <c r="S38">
+      <c r="T38" t="s">
+        <v>350</v>
+      </c>
+      <c r="U38" s="11">
+        <v>0.17926965669555001</v>
+      </c>
+      <c r="V38" s="12">
+        <v>21.8</v>
+      </c>
+      <c r="W38">
         <v>9</v>
       </c>
-      <c r="T38">
+      <c r="X38">
         <v>3</v>
       </c>
-      <c r="U38" t="s">
+      <c r="Y38" t="s">
         <v>584</v>
       </c>
-      <c r="V38" t="s">
+      <c r="Z38" t="s">
         <v>383</v>
       </c>
-      <c r="W38" s="5" t="s">
+      <c r="AA38" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="X38" s="7" t="s">
+      <c r="AB38" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="AC38" t="s">
         <v>390</v>
       </c>
-      <c r="Z38" s="2" t="s">
+      <c r="AD38" s="2" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -5280,46 +5857,55 @@
         <v>491</v>
       </c>
       <c r="N39" t="s">
+        <v>655</v>
+      </c>
+      <c r="O39" t="s">
         <v>309</v>
       </c>
-      <c r="O39" t="s">
+      <c r="P39" t="s">
         <v>304</v>
       </c>
-      <c r="P39" t="s">
+      <c r="Q39" t="s">
         <v>629</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <v>4.6399999999999997E-2</v>
       </c>
-      <c r="R39" t="s">
+      <c r="S39" t="s">
         <v>324</v>
       </c>
-      <c r="S39">
+      <c r="T39" t="s">
+        <v>629</v>
+      </c>
+      <c r="U39" s="11">
+        <v>2.88818086030708E-2</v>
+      </c>
+      <c r="W39">
         <v>10</v>
       </c>
-      <c r="T39">
+      <c r="X39">
         <v>4</v>
       </c>
-      <c r="U39" t="s">
+      <c r="Y39" t="s">
         <v>584</v>
       </c>
-      <c r="V39" t="s">
+      <c r="Z39" t="s">
         <v>382</v>
       </c>
-      <c r="W39" s="5" t="s">
+      <c r="AA39" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="X39" s="7" t="s">
+      <c r="AB39" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="AC39" t="s">
         <v>390</v>
       </c>
-      <c r="Z39" s="3" t="s">
+      <c r="AD39" s="3" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -5360,46 +5946,58 @@
         <v>492</v>
       </c>
       <c r="N40" t="s">
+        <v>656</v>
+      </c>
+      <c r="O40" t="s">
         <v>302</v>
       </c>
-      <c r="O40" t="s">
+      <c r="P40" t="s">
         <v>319</v>
       </c>
-      <c r="P40" t="s">
+      <c r="Q40" t="s">
         <v>351</v>
       </c>
-      <c r="Q40">
+      <c r="R40">
         <v>0.14380000000000001</v>
       </c>
-      <c r="R40" t="s">
+      <c r="S40" t="s">
         <v>324</v>
       </c>
-      <c r="S40">
+      <c r="T40" t="s">
+        <v>351</v>
+      </c>
+      <c r="U40" s="11">
+        <v>0.28050688420154202</v>
+      </c>
+      <c r="V40" s="12">
+        <v>23.1</v>
+      </c>
+      <c r="W40">
         <v>10</v>
       </c>
-      <c r="T40">
+      <c r="X40">
         <v>8</v>
       </c>
-      <c r="U40" t="s">
+      <c r="Y40" t="s">
         <v>585</v>
       </c>
-      <c r="V40" t="s">
+      <c r="Z40" t="s">
         <v>382</v>
       </c>
-      <c r="W40" s="5" t="s">
+      <c r="AA40" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="X40" s="6" t="s">
+      <c r="AB40" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="AC40" t="s">
         <v>434</v>
       </c>
-      <c r="Z40" s="2" t="s">
+      <c r="AD40" s="2" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -5437,46 +6035,58 @@
         <v>493</v>
       </c>
       <c r="N41" t="s">
+        <v>657</v>
+      </c>
+      <c r="O41" t="s">
         <v>302</v>
       </c>
-      <c r="O41" t="s">
+      <c r="P41" t="s">
         <v>320</v>
       </c>
-      <c r="P41" t="s">
+      <c r="Q41" t="s">
         <v>352</v>
       </c>
-      <c r="Q41">
+      <c r="R41">
         <v>0.99070000000000003</v>
       </c>
-      <c r="R41" t="s">
+      <c r="S41" t="s">
         <v>327</v>
       </c>
-      <c r="S41">
+      <c r="T41" t="s">
+        <v>352</v>
+      </c>
+      <c r="U41" s="11">
+        <v>0.91556601202621002</v>
+      </c>
+      <c r="V41" s="12">
+        <v>28.4</v>
+      </c>
+      <c r="W41">
         <v>10</v>
       </c>
-      <c r="T41">
+      <c r="X41">
         <v>10</v>
       </c>
-      <c r="U41" t="s">
+      <c r="Y41" t="s">
         <v>586</v>
       </c>
-      <c r="V41" t="s">
+      <c r="Z41" t="s">
         <v>383</v>
       </c>
-      <c r="W41" s="5" t="s">
+      <c r="AA41" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="X41" s="6" t="s">
+      <c r="AB41" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="Y41" t="s">
+      <c r="AC41" t="s">
         <v>441</v>
       </c>
-      <c r="Z41" s="2" t="s">
+      <c r="AD41" s="2" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -5514,46 +6124,58 @@
         <v>494</v>
       </c>
       <c r="N42" t="s">
+        <v>658</v>
+      </c>
+      <c r="O42" t="s">
         <v>302</v>
       </c>
-      <c r="O42" t="s">
+      <c r="P42" t="s">
         <v>320</v>
       </c>
-      <c r="P42" t="s">
+      <c r="Q42" t="s">
         <v>353</v>
       </c>
-      <c r="Q42">
+      <c r="R42">
         <v>0.95240000000000002</v>
       </c>
-      <c r="R42" t="s">
+      <c r="S42" t="s">
         <v>327</v>
       </c>
-      <c r="S42">
+      <c r="T42" t="s">
+        <v>353</v>
+      </c>
+      <c r="U42" s="11">
+        <v>0.90302744249690803</v>
+      </c>
+      <c r="V42" s="12">
+        <v>32</v>
+      </c>
+      <c r="W42">
         <v>10</v>
       </c>
-      <c r="T42">
+      <c r="X42">
         <v>10</v>
       </c>
-      <c r="U42" t="s">
+      <c r="Y42" t="s">
         <v>586</v>
       </c>
-      <c r="V42" t="s">
+      <c r="Z42" t="s">
         <v>382</v>
       </c>
-      <c r="W42" s="5" t="s">
+      <c r="AA42" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="X42" s="6" t="s">
+      <c r="AB42" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="AC42" t="s">
         <v>440</v>
       </c>
-      <c r="Z42" s="2" t="s">
+      <c r="AD42" s="2" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -5591,46 +6213,58 @@
         <v>495</v>
       </c>
       <c r="N43" t="s">
+        <v>659</v>
+      </c>
+      <c r="O43" t="s">
         <v>302</v>
       </c>
-      <c r="O43" t="s">
+      <c r="P43" t="s">
         <v>318</v>
       </c>
-      <c r="P43" t="s">
+      <c r="Q43" t="s">
         <v>354</v>
       </c>
-      <c r="Q43">
+      <c r="R43">
         <v>0.98650000000000004</v>
       </c>
-      <c r="R43" t="s">
+      <c r="S43" t="s">
         <v>327</v>
       </c>
-      <c r="S43">
+      <c r="T43" t="s">
+        <v>354</v>
+      </c>
+      <c r="U43" s="11">
+        <v>0.91158108379851999</v>
+      </c>
+      <c r="V43" s="12">
+        <v>26.6</v>
+      </c>
+      <c r="W43">
         <v>10</v>
       </c>
-      <c r="T43">
+      <c r="X43">
         <v>10</v>
       </c>
-      <c r="U43" t="s">
+      <c r="Y43" t="s">
         <v>586</v>
       </c>
-      <c r="V43" t="s">
+      <c r="Z43" t="s">
         <v>382</v>
       </c>
-      <c r="W43" s="5" t="s">
+      <c r="AA43" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="X43" s="6" t="s">
+      <c r="AB43" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="AC43" t="s">
         <v>440</v>
       </c>
-      <c r="Z43" s="2" t="s">
+      <c r="AD43" s="2" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -5658,41 +6292,50 @@
       <c r="M44" t="s">
         <v>496</v>
       </c>
-      <c r="P44" t="s">
+      <c r="N44" t="s">
+        <v>660</v>
+      </c>
+      <c r="Q44" t="s">
         <v>355</v>
       </c>
-      <c r="Q44">
+      <c r="R44">
         <v>0.98899999999999999</v>
       </c>
-      <c r="R44" t="s">
+      <c r="S44" t="s">
         <v>327</v>
       </c>
-      <c r="S44">
+      <c r="T44" t="s">
+        <v>355</v>
+      </c>
+      <c r="U44" s="11">
+        <v>0.45931143084051901</v>
+      </c>
+      <c r="W44">
         <v>10</v>
       </c>
-      <c r="T44">
+      <c r="X44">
         <v>9</v>
       </c>
-      <c r="U44" t="s">
+      <c r="Y44" t="s">
         <v>586</v>
       </c>
-      <c r="V44" t="s">
+      <c r="Z44" t="s">
         <v>382</v>
       </c>
-      <c r="W44" s="5" t="s">
+      <c r="AA44" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="X44" s="7" t="s">
+      <c r="AB44" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="AC44" t="s">
         <v>437</v>
       </c>
-      <c r="Z44" s="3" t="s">
+      <c r="AD44" s="3" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -5720,41 +6363,50 @@
       <c r="M45" t="s">
         <v>497</v>
       </c>
-      <c r="P45" t="s">
+      <c r="N45" t="s">
+        <v>661</v>
+      </c>
+      <c r="Q45" t="s">
         <v>356</v>
       </c>
-      <c r="Q45">
+      <c r="R45">
         <v>0.98819999999999997</v>
       </c>
-      <c r="R45" t="s">
+      <c r="S45" t="s">
         <v>327</v>
       </c>
-      <c r="S45">
+      <c r="T45" t="s">
+        <v>356</v>
+      </c>
+      <c r="U45" s="11">
+        <v>0.91450073009511101</v>
+      </c>
+      <c r="W45">
         <v>10</v>
       </c>
-      <c r="T45">
+      <c r="X45">
         <v>10</v>
       </c>
-      <c r="U45" t="s">
+      <c r="Y45" t="s">
         <v>565</v>
       </c>
-      <c r="V45" t="s">
+      <c r="Z45" t="s">
         <v>382</v>
       </c>
-      <c r="W45" s="5" t="s">
+      <c r="AA45" s="5" t="s">
         <v>594</v>
       </c>
-      <c r="X45" s="6" t="s">
+      <c r="AB45" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="AC45" t="s">
         <v>595</v>
       </c>
-      <c r="Z45" s="2" t="s">
+      <c r="AD45" s="2" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -5792,46 +6444,58 @@
         <v>498</v>
       </c>
       <c r="N46" t="s">
+        <v>662</v>
+      </c>
+      <c r="O46" t="s">
         <v>302</v>
       </c>
-      <c r="O46" t="s">
+      <c r="P46" t="s">
         <v>306</v>
       </c>
-      <c r="P46" t="s">
+      <c r="Q46" t="s">
         <v>357</v>
       </c>
-      <c r="Q46">
+      <c r="R46">
         <v>0.98729999999999996</v>
       </c>
-      <c r="R46" t="s">
+      <c r="S46" t="s">
         <v>327</v>
       </c>
-      <c r="S46">
+      <c r="T46" t="s">
+        <v>357</v>
+      </c>
+      <c r="U46" s="11">
+        <v>0.90833694982020596</v>
+      </c>
+      <c r="V46" s="12">
+        <v>26.6</v>
+      </c>
+      <c r="W46">
         <v>10</v>
       </c>
-      <c r="T46">
+      <c r="X46">
         <v>10</v>
       </c>
-      <c r="U46" t="s">
+      <c r="Y46" t="s">
         <v>587</v>
       </c>
-      <c r="V46" t="s">
+      <c r="Z46" t="s">
         <v>382</v>
       </c>
-      <c r="W46" s="5" t="s">
+      <c r="AA46" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="X46" s="7" t="s">
+      <c r="AB46" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="AC46" t="s">
         <v>434</v>
       </c>
-      <c r="Z46" s="3" t="s">
+      <c r="AD46" s="3" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -5869,46 +6533,58 @@
         <v>499</v>
       </c>
       <c r="N47" t="s">
+        <v>663</v>
+      </c>
+      <c r="O47" t="s">
         <v>302</v>
       </c>
-      <c r="O47" t="s">
+      <c r="P47" t="s">
         <v>318</v>
       </c>
-      <c r="P47" t="s">
+      <c r="Q47" t="s">
         <v>358</v>
       </c>
-      <c r="Q47">
+      <c r="R47">
         <v>0.92169999999999996</v>
       </c>
-      <c r="R47" t="s">
+      <c r="S47" t="s">
         <v>327</v>
       </c>
-      <c r="S47">
+      <c r="T47" t="s">
+        <v>358</v>
+      </c>
+      <c r="U47" s="11">
+        <v>0.59225174085673904</v>
+      </c>
+      <c r="V47" s="12">
+        <v>25.7</v>
+      </c>
+      <c r="W47">
         <v>10</v>
       </c>
-      <c r="T47">
+      <c r="X47">
         <v>10</v>
       </c>
-      <c r="U47" t="s">
+      <c r="Y47" t="s">
         <v>587</v>
       </c>
-      <c r="V47" t="s">
+      <c r="Z47" t="s">
         <v>382</v>
       </c>
-      <c r="W47" s="5" t="s">
+      <c r="AA47" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="X47" s="6" t="s">
+      <c r="AB47" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="AC47" t="s">
         <v>440</v>
       </c>
-      <c r="Z47" s="2" t="s">
+      <c r="AD47" s="2" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -5946,46 +6622,58 @@
         <v>500</v>
       </c>
       <c r="N48" t="s">
+        <v>664</v>
+      </c>
+      <c r="O48" t="s">
         <v>302</v>
       </c>
-      <c r="O48" t="s">
+      <c r="P48" t="s">
         <v>320</v>
       </c>
-      <c r="P48" t="s">
+      <c r="Q48" t="s">
         <v>359</v>
       </c>
-      <c r="Q48">
+      <c r="R48">
         <v>0.99150000000000005</v>
       </c>
-      <c r="R48" t="s">
+      <c r="S48" t="s">
         <v>327</v>
       </c>
-      <c r="S48">
+      <c r="T48" t="s">
+        <v>359</v>
+      </c>
+      <c r="U48" s="11">
+        <v>0.916501333709138</v>
+      </c>
+      <c r="V48" s="12">
+        <v>26.8</v>
+      </c>
+      <c r="W48">
         <v>10</v>
       </c>
-      <c r="T48">
+      <c r="X48">
         <v>10</v>
       </c>
-      <c r="U48" t="s">
+      <c r="Y48" t="s">
         <v>587</v>
       </c>
-      <c r="V48" t="s">
+      <c r="Z48" t="s">
         <v>382</v>
       </c>
-      <c r="W48" s="5" t="s">
+      <c r="AA48" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="X48" s="6" t="s">
+      <c r="AB48" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="AC48" t="s">
         <v>390</v>
       </c>
-      <c r="Z48" s="2" t="s">
+      <c r="AD48" s="2" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -6023,46 +6711,58 @@
         <v>501</v>
       </c>
       <c r="N49" t="s">
+        <v>665</v>
+      </c>
+      <c r="O49" t="s">
         <v>302</v>
       </c>
-      <c r="O49" t="s">
+      <c r="P49" t="s">
         <v>320</v>
       </c>
-      <c r="P49" t="s">
+      <c r="Q49" t="s">
         <v>360</v>
       </c>
-      <c r="Q49">
+      <c r="R49">
         <v>0.99750000000000005</v>
       </c>
-      <c r="R49" t="s">
+      <c r="S49" t="s">
         <v>327</v>
       </c>
-      <c r="S49">
+      <c r="T49" t="s">
+        <v>360</v>
+      </c>
+      <c r="U49" s="11">
+        <v>0.91248589553500103</v>
+      </c>
+      <c r="V49" s="12">
+        <v>26.8</v>
+      </c>
+      <c r="W49">
         <v>10</v>
       </c>
-      <c r="T49">
+      <c r="X49">
         <v>10</v>
       </c>
-      <c r="U49" t="s">
+      <c r="Y49" t="s">
         <v>587</v>
       </c>
-      <c r="V49" t="s">
+      <c r="Z49" t="s">
         <v>382</v>
       </c>
-      <c r="W49" s="5" t="s">
+      <c r="AA49" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="X49" s="6" t="s">
+      <c r="AB49" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="AC49" t="s">
         <v>390</v>
       </c>
-      <c r="Z49" s="2" t="s">
+      <c r="AD49" s="2" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -6103,46 +6803,58 @@
         <v>502</v>
       </c>
       <c r="N50" t="s">
+        <v>666</v>
+      </c>
+      <c r="O50" t="s">
         <v>303</v>
       </c>
-      <c r="O50" t="s">
+      <c r="P50" t="s">
         <v>321</v>
       </c>
-      <c r="P50" t="s">
+      <c r="Q50" t="s">
         <v>361</v>
       </c>
-      <c r="Q50">
+      <c r="R50">
         <v>0.31040000000000001</v>
       </c>
-      <c r="R50" t="s">
+      <c r="S50" t="s">
         <v>324</v>
       </c>
-      <c r="S50">
+      <c r="T50" t="s">
+        <v>361</v>
+      </c>
+      <c r="U50" s="11">
+        <v>0.189425024987147</v>
+      </c>
+      <c r="V50" s="12">
+        <v>15.42</v>
+      </c>
+      <c r="W50">
         <v>8</v>
       </c>
-      <c r="T50">
+      <c r="X50">
         <v>6</v>
       </c>
-      <c r="U50" t="s">
+      <c r="Y50" t="s">
         <v>588</v>
       </c>
-      <c r="V50" t="s">
+      <c r="Z50" t="s">
         <v>382</v>
       </c>
-      <c r="W50" s="5" t="s">
+      <c r="AA50" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="X50" s="7" t="s">
+      <c r="AB50" s="7" t="s">
         <v>591</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="AC50" t="s">
         <v>390</v>
       </c>
-      <c r="Z50" s="3" t="s">
+      <c r="AD50" s="3" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -6183,46 +6895,58 @@
         <v>503</v>
       </c>
       <c r="N51" t="s">
+        <v>667</v>
+      </c>
+      <c r="O51" t="s">
         <v>309</v>
       </c>
-      <c r="O51" t="s">
+      <c r="P51" t="s">
         <v>304</v>
       </c>
-      <c r="P51" t="s">
+      <c r="Q51" t="s">
         <v>362</v>
       </c>
-      <c r="Q51">
+      <c r="R51">
         <v>0.29920000000000002</v>
       </c>
-      <c r="R51" t="s">
+      <c r="S51" t="s">
         <v>324</v>
       </c>
-      <c r="S51">
+      <c r="T51" t="s">
+        <v>362</v>
+      </c>
+      <c r="U51" s="11">
+        <v>0.16228039651854301</v>
+      </c>
+      <c r="V51" s="12">
+        <v>19.11</v>
+      </c>
+      <c r="W51">
         <v>10</v>
       </c>
-      <c r="T51">
+      <c r="X51">
         <v>4</v>
       </c>
-      <c r="U51" t="s">
+      <c r="Y51" t="s">
         <v>566</v>
       </c>
-      <c r="V51" t="s">
+      <c r="Z51" t="s">
         <v>382</v>
       </c>
-      <c r="W51" s="5" t="s">
+      <c r="AA51" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="X51" s="6" t="s">
+      <c r="AB51" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="AC51" t="s">
         <v>390</v>
       </c>
-      <c r="Z51" s="2" t="s">
+      <c r="AD51" s="2" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -6247,41 +6971,50 @@
       <c r="M52" t="s">
         <v>504</v>
       </c>
-      <c r="P52" t="s">
+      <c r="N52" t="s">
+        <v>668</v>
+      </c>
+      <c r="Q52" t="s">
         <v>363</v>
       </c>
-      <c r="Q52">
+      <c r="R52">
         <v>0.99229999999999996</v>
       </c>
-      <c r="R52" t="s">
+      <c r="S52" t="s">
         <v>327</v>
       </c>
-      <c r="S52">
+      <c r="T52" t="s">
+        <v>363</v>
+      </c>
+      <c r="U52" s="11">
+        <v>0.85324735428522702</v>
+      </c>
+      <c r="W52">
         <v>10</v>
       </c>
-      <c r="T52">
+      <c r="X52">
         <v>9</v>
       </c>
-      <c r="U52" t="s">
+      <c r="Y52" t="s">
         <v>567</v>
       </c>
-      <c r="V52" t="s">
+      <c r="Z52" t="s">
         <v>382</v>
       </c>
-      <c r="W52" s="5" t="s">
+      <c r="AA52" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="X52" s="7" t="s">
+      <c r="AB52" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="AC52" t="s">
         <v>390</v>
       </c>
-      <c r="Z52" s="3" t="s">
+      <c r="AD52" s="3" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -6319,46 +7052,58 @@
         <v>505</v>
       </c>
       <c r="N53" t="s">
+        <v>669</v>
+      </c>
+      <c r="O53" t="s">
         <v>302</v>
       </c>
-      <c r="O53" t="s">
+      <c r="P53" t="s">
         <v>320</v>
       </c>
-      <c r="P53" t="s">
+      <c r="Q53" t="s">
         <v>364</v>
       </c>
-      <c r="Q53">
+      <c r="R53">
         <v>0.98340000000000005</v>
       </c>
-      <c r="R53" t="s">
+      <c r="S53" t="s">
         <v>327</v>
       </c>
-      <c r="S53">
+      <c r="T53" t="s">
+        <v>364</v>
+      </c>
+      <c r="U53" s="11">
+        <v>0.47048327216090802</v>
+      </c>
+      <c r="V53" s="12">
+        <v>27</v>
+      </c>
+      <c r="W53">
         <v>10</v>
       </c>
-      <c r="T53">
+      <c r="X53">
         <v>10</v>
       </c>
-      <c r="U53" t="s">
+      <c r="Y53" t="s">
         <v>567</v>
       </c>
-      <c r="V53" t="s">
+      <c r="Z53" t="s">
         <v>382</v>
       </c>
-      <c r="W53" s="5" t="s">
+      <c r="AA53" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="X53" s="7" t="s">
+      <c r="AB53" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="AC53" t="s">
         <v>390</v>
       </c>
-      <c r="Z53" s="3" t="s">
+      <c r="AD53" s="3" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -6396,43 +7141,55 @@
         <v>506</v>
       </c>
       <c r="N54" t="s">
+        <v>670</v>
+      </c>
+      <c r="O54" t="s">
         <v>303</v>
       </c>
-      <c r="P54" t="s">
+      <c r="Q54" t="s">
         <v>365</v>
       </c>
-      <c r="Q54">
+      <c r="R54">
         <v>0.9889</v>
       </c>
-      <c r="R54" t="s">
+      <c r="S54" t="s">
         <v>327</v>
       </c>
-      <c r="S54">
+      <c r="T54" t="s">
+        <v>365</v>
+      </c>
+      <c r="U54" s="11">
+        <v>0.50237461128261196</v>
+      </c>
+      <c r="V54" s="12">
+        <v>26.2</v>
+      </c>
+      <c r="W54">
         <v>10</v>
       </c>
-      <c r="T54">
+      <c r="X54">
         <v>9</v>
       </c>
-      <c r="U54" t="s">
+      <c r="Y54" t="s">
         <v>589</v>
       </c>
-      <c r="V54" t="s">
+      <c r="Z54" t="s">
         <v>382</v>
       </c>
-      <c r="W54" s="5" t="s">
+      <c r="AA54" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="X54" s="7" t="s">
+      <c r="AB54" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="AC54" t="s">
         <v>437</v>
       </c>
-      <c r="Z54" s="3" t="s">
+      <c r="AD54" s="3" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -6458,46 +7215,55 @@
         <v>507</v>
       </c>
       <c r="N55" t="s">
+        <v>671</v>
+      </c>
+      <c r="O55" t="s">
         <v>302</v>
       </c>
-      <c r="O55" t="s">
+      <c r="P55" t="s">
         <v>320</v>
       </c>
-      <c r="P55" t="s">
+      <c r="Q55" t="s">
         <v>366</v>
       </c>
-      <c r="Q55">
+      <c r="R55">
         <v>0.98140000000000005</v>
       </c>
-      <c r="R55" t="s">
+      <c r="S55" t="s">
         <v>327</v>
       </c>
-      <c r="S55">
+      <c r="T55" t="s">
+        <v>366</v>
+      </c>
+      <c r="U55" s="11">
+        <v>0.86277450811384704</v>
+      </c>
+      <c r="W55">
         <v>10</v>
       </c>
-      <c r="T55">
+      <c r="X55">
         <v>10</v>
       </c>
-      <c r="U55" t="s">
+      <c r="Y55" t="s">
         <v>589</v>
       </c>
-      <c r="V55" t="s">
+      <c r="Z55" t="s">
         <v>382</v>
       </c>
-      <c r="W55" s="5" t="s">
+      <c r="AA55" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="X55" s="7" t="s">
+      <c r="AB55" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="AC55" t="s">
         <v>390</v>
       </c>
-      <c r="Z55" s="3" t="s">
+      <c r="AD55" s="3" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -6535,46 +7301,58 @@
         <v>508</v>
       </c>
       <c r="N56" t="s">
+        <v>672</v>
+      </c>
+      <c r="O56" t="s">
         <v>302</v>
       </c>
-      <c r="O56" t="s">
+      <c r="P56" t="s">
         <v>322</v>
       </c>
-      <c r="P56" t="s">
+      <c r="Q56" t="s">
         <v>367</v>
       </c>
-      <c r="Q56">
+      <c r="R56">
         <v>0.99109999999999998</v>
       </c>
-      <c r="R56" t="s">
+      <c r="S56" t="s">
         <v>327</v>
       </c>
-      <c r="S56">
+      <c r="T56" t="s">
+        <v>367</v>
+      </c>
+      <c r="U56" s="11">
+        <v>0.916142695195027</v>
+      </c>
+      <c r="V56" s="12">
+        <v>24.2</v>
+      </c>
+      <c r="W56">
         <v>10</v>
       </c>
-      <c r="T56">
+      <c r="X56">
         <v>9</v>
       </c>
-      <c r="U56" t="s">
+      <c r="Y56" t="s">
         <v>589</v>
       </c>
-      <c r="V56" t="s">
+      <c r="Z56" t="s">
         <v>382</v>
       </c>
-      <c r="W56" s="5" t="s">
+      <c r="AA56" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="X56" s="6" t="s">
+      <c r="AB56" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="AC56" t="s">
         <v>390</v>
       </c>
-      <c r="Z56" s="2" t="s">
+      <c r="AD56" s="2" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -6609,46 +7387,55 @@
         <v>509</v>
       </c>
       <c r="N57" t="s">
+        <v>673</v>
+      </c>
+      <c r="O57" t="s">
         <v>302</v>
       </c>
-      <c r="O57" t="s">
+      <c r="P57" t="s">
         <v>306</v>
       </c>
-      <c r="P57" t="s">
+      <c r="Q57" t="s">
         <v>368</v>
       </c>
-      <c r="Q57">
+      <c r="R57">
         <v>0.87329999999999997</v>
       </c>
-      <c r="R57" t="s">
+      <c r="S57" t="s">
         <v>327</v>
       </c>
-      <c r="S57">
+      <c r="T57" t="s">
+        <v>368</v>
+      </c>
+      <c r="U57" s="11">
+        <v>0.66918889788955505</v>
+      </c>
+      <c r="W57">
         <v>10</v>
       </c>
-      <c r="T57">
+      <c r="X57">
         <v>9</v>
       </c>
-      <c r="U57" t="s">
+      <c r="Y57" t="s">
         <v>589</v>
       </c>
-      <c r="V57" t="s">
+      <c r="Z57" t="s">
         <v>382</v>
       </c>
-      <c r="W57" s="5" t="s">
+      <c r="AA57" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="X57" s="5" t="s">
+      <c r="AB57" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="AC57" t="s">
         <v>390</v>
       </c>
-      <c r="Z57" s="3" t="s">
+      <c r="AD57" s="3" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -6676,41 +7463,50 @@
       <c r="M58" t="s">
         <v>510</v>
       </c>
-      <c r="P58" t="s">
+      <c r="N58" t="s">
+        <v>674</v>
+      </c>
+      <c r="Q58" t="s">
         <v>369</v>
       </c>
-      <c r="Q58">
+      <c r="R58">
         <v>0.84450000000000003</v>
       </c>
-      <c r="R58" t="s">
+      <c r="S58" t="s">
         <v>327</v>
       </c>
-      <c r="S58">
+      <c r="T58" t="s">
+        <v>369</v>
+      </c>
+      <c r="U58" s="11">
+        <v>0.84322175556123202</v>
+      </c>
+      <c r="W58">
         <v>10</v>
       </c>
-      <c r="T58">
+      <c r="X58">
         <v>9</v>
       </c>
-      <c r="U58" t="s">
+      <c r="Y58" t="s">
         <v>589</v>
       </c>
-      <c r="V58" t="s">
+      <c r="Z58" t="s">
         <v>382</v>
       </c>
-      <c r="W58" s="5" t="s">
+      <c r="AA58" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="X58" s="7" t="s">
+      <c r="AB58" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="AC58" t="s">
         <v>390</v>
       </c>
-      <c r="Z58" s="3" t="s">
+      <c r="AD58" s="3" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -6748,43 +7544,55 @@
         <v>512</v>
       </c>
       <c r="N59" t="s">
+        <v>675</v>
+      </c>
+      <c r="O59" t="s">
         <v>303</v>
       </c>
-      <c r="P59" t="s">
+      <c r="Q59" t="s">
         <v>370</v>
       </c>
-      <c r="Q59">
+      <c r="R59">
         <v>0.94930000000000003</v>
       </c>
-      <c r="R59" t="s">
+      <c r="S59" t="s">
         <v>327</v>
       </c>
-      <c r="S59">
+      <c r="T59" t="s">
+        <v>370</v>
+      </c>
+      <c r="U59" s="11">
+        <v>0.41491432135983702</v>
+      </c>
+      <c r="V59" s="12">
+        <v>24.3</v>
+      </c>
+      <c r="W59">
         <v>10</v>
       </c>
-      <c r="T59">
+      <c r="X59">
         <v>8</v>
       </c>
-      <c r="U59" t="s">
+      <c r="Y59" t="s">
         <v>568</v>
       </c>
-      <c r="V59" t="s">
+      <c r="Z59" t="s">
         <v>383</v>
       </c>
-      <c r="W59" s="5" t="s">
+      <c r="AA59" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="X59" s="7" t="s">
+      <c r="AB59" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="AC59" t="s">
         <v>410</v>
       </c>
-      <c r="Z59" s="3" t="s">
+      <c r="AD59" s="3" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -6809,100 +7617,493 @@
       <c r="M60" t="s">
         <v>511</v>
       </c>
-      <c r="P60" t="s">
+      <c r="N60" t="s">
+        <v>676</v>
+      </c>
+      <c r="Q60" t="s">
         <v>371</v>
       </c>
-      <c r="Q60">
+      <c r="R60">
         <v>0.85819999999999996</v>
       </c>
-      <c r="R60" t="s">
+      <c r="S60" t="s">
         <v>327</v>
       </c>
-      <c r="S60">
+      <c r="T60" t="s">
+        <v>371</v>
+      </c>
+      <c r="U60" s="11">
+        <v>0.85959883417587202</v>
+      </c>
+      <c r="W60">
         <v>10</v>
       </c>
-      <c r="T60">
+      <c r="X60">
         <v>9</v>
       </c>
-      <c r="U60" t="s">
+      <c r="Y60" t="s">
         <v>568</v>
       </c>
-      <c r="V60" t="s">
+      <c r="Z60" t="s">
         <v>382</v>
       </c>
-      <c r="W60" s="5" t="s">
+      <c r="AA60" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="X60" s="6" t="s">
+      <c r="AB60" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="AC60" t="s">
         <v>390</v>
       </c>
-      <c r="Z60" s="2" t="s">
+      <c r="AD60" s="2" t="s">
         <v>443</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="Z20" r:id="rId1" display="https://doi.org/10.1093/brain/awaa016" xr:uid="{2E770132-E003-4F83-8F4C-DE6B8243518B}"/>
-    <hyperlink ref="Z60" r:id="rId2" display="https://doi.org/10.1007%2Fs12017-012-8216-8" xr:uid="{0F8C7DBA-3D7A-4D7F-B745-99D198552BC6}"/>
-    <hyperlink ref="Z18" r:id="rId3" display="https://doi.org/10.1007/s12264-019-00413-5" xr:uid="{14BD3E41-A4A4-4FFC-B3DB-3DBDAA6F95A8}"/>
-    <hyperlink ref="Z19" r:id="rId4" display="https://doi.org/10.1007/s12264-019-00413-5" xr:uid="{8BB3F51D-EA6D-41BE-9E92-BAF2C22BA424}"/>
-    <hyperlink ref="Z8" r:id="rId5" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1111/j.0022-202X.2005.23737.x" xr:uid="{39CE969D-91CC-4B50-8725-B2958D440036}"/>
-    <hyperlink ref="Z59" r:id="rId6" display="https://doi.org/10.1186/s10194-015-0519-3" xr:uid="{91573EA6-0000-42D6-8552-DEF893CF4139}"/>
-    <hyperlink ref="Z58" r:id="rId7" display="https://doi.org/10.1523/jneurosci.0462-16.2016" xr:uid="{E5D6EE1E-7229-417E-A234-7DC9A692FB12}"/>
-    <hyperlink ref="Z57" r:id="rId8" display="https://doi.org/10.1074/jbc.m113.502211" xr:uid="{D6AB17A6-B263-4A5D-ADDD-9F805EFF9A09}"/>
-    <hyperlink ref="Z56" r:id="rId9" display="https://doi.org/10.1523%2FJNEUROSCI.3443-08.2008" xr:uid="{67B78811-8075-4B7D-A08A-CF2E474F9C2C}"/>
-    <hyperlink ref="Z55" r:id="rId10" display="https://doi.org/10.1186/1744-8069-4-37" xr:uid="{5BC2E6CE-B568-478A-AC94-D58FF6A2080F}"/>
-    <hyperlink ref="Z54" r:id="rId11" display="https://doi.org/10.1111/jns.12590" xr:uid="{8ED4417F-1EDF-4049-B959-42F477CB1F85}"/>
-    <hyperlink ref="Z53" r:id="rId12" display="https://doi.org/10.1097/aln.0000000000000476" xr:uid="{6BD0E682-C582-4339-A723-0A63147DFD25}"/>
-    <hyperlink ref="Z52" r:id="rId13" display="https://doi.org/10.1038/nrneurol.2010.162" xr:uid="{3495AEEB-597E-4000-9840-4BDDE14E61C6}"/>
-    <hyperlink ref="Z51" r:id="rId14" display="https://doi.org/10.1007%2Fs12017-012-8216-8" xr:uid="{F33877D7-4CD2-453B-89F1-B210C4CDC7F2}"/>
-    <hyperlink ref="Z50" r:id="rId15" display="https://doi.org/10.1002/ana.22485" xr:uid="{DF3490CB-586B-4E14-8B46-52E1195A0A6F}"/>
-    <hyperlink ref="Z49" r:id="rId16" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.neuron.2006.10.006" xr:uid="{79A1E7E2-C2E9-4EEB-98E0-2A2CAB7A5263}"/>
-    <hyperlink ref="Z46" r:id="rId17" display="https://doi.org/10.1093/brain/awh514" xr:uid="{50B1ED96-0904-4911-8641-E72213C09F03}"/>
-    <hyperlink ref="Z43" r:id="rId18" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.neuron.2006.10.006" xr:uid="{3022140F-7932-4CEC-9BDA-AFC5FD1A8B14}"/>
-    <hyperlink ref="Z42" r:id="rId19" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.neuron.2006.10.006" xr:uid="{970370C6-E1B4-4162-B3D6-4FB062B16F17}"/>
-    <hyperlink ref="Z47" r:id="rId20" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.neuron.2006.10.006" xr:uid="{F1474458-F437-482F-9549-0308C330A784}"/>
-    <hyperlink ref="Z48" r:id="rId21" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.neuron.2006.10.006" xr:uid="{22DCD96F-509E-42FC-BEA8-44F35C045FED}"/>
-    <hyperlink ref="Z41" r:id="rId22" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.neuron.2006.10.006" xr:uid="{68985904-4E93-49FA-8282-7BACD45A791C}"/>
-    <hyperlink ref="Z45" r:id="rId23" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.bbrc.2013.01.079" xr:uid="{1A337875-DC0E-4DE0-B67A-E24451E0C4AF}"/>
-    <hyperlink ref="Z44" r:id="rId24" display="https://doi.org/10.1111/jns.12590" xr:uid="{F1700440-BF57-41F8-803E-8DE448F1DCEE}"/>
-    <hyperlink ref="Z40" r:id="rId25" display="https://doi.org/10.1093/brain/awaa016" xr:uid="{EAFBAE4C-2DDB-4D91-B79C-91128B2C33E6}"/>
-    <hyperlink ref="Z39" r:id="rId26" display="https://doi.org/10.1002/ana.21895" xr:uid="{F0254713-5AB0-48B1-A17A-23BFD936BA07}"/>
-    <hyperlink ref="Z38" r:id="rId27" display="https://doi.org/10.1172%2FJCI33297" xr:uid="{7468F40C-F320-43A6-B588-65C224AE8912}"/>
-    <hyperlink ref="Z37" r:id="rId28" display="https://doi.org/10.1002/ana.23725" xr:uid="{1074362F-383F-41DB-AFC9-B16F5953F5B1}"/>
-    <hyperlink ref="Z36" r:id="rId29" display="https://doi.org/10.1093/brain/awr143" xr:uid="{926E5B4E-0E00-455F-87A2-8E0521921806}"/>
-    <hyperlink ref="Z35" r:id="rId30" display="https://doi.org/10.1002/ana.22485" xr:uid="{10287554-D347-482C-A8A9-5E1775A1CC39}"/>
-    <hyperlink ref="Z34" r:id="rId31" display="https://doi.org/10.1177/1358863x11422584" xr:uid="{4842A9E9-CDE5-4419-A7F2-DFEE76383400}"/>
-    <hyperlink ref="Z33" r:id="rId32" display="https://doi.org/10.1016/j.expneurol.2008.12.012" xr:uid="{EE3C0916-BC16-4C72-B8B3-2C56322B1203}"/>
-    <hyperlink ref="Z32" r:id="rId33" display="https://doi.org/10.1523/jneurosci.3424-06.2006" xr:uid="{E66FEFA4-7C22-49D9-A383-AE128FE111A9}"/>
-    <hyperlink ref="Z31" r:id="rId34" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1111/j.0022-202X.2005.23737.x" xr:uid="{4320C9C7-5482-4F1A-AC54-AC8693FA0D15}"/>
-    <hyperlink ref="Z30" r:id="rId35" display="https://doi.org/10.1136/jmg.2003.012153" xr:uid="{CFB4534C-8331-41AA-9E5C-CF9128DBA5D7}"/>
-    <hyperlink ref="Z29" r:id="rId36" display="https://doi.org/10.1093/brain/awr349" xr:uid="{27190349-1E3E-4F99-9C4F-A49DB88BE3E0}"/>
-    <hyperlink ref="Z28" r:id="rId37" display="https://doi.org/10.1074/jbc.m117.778779" xr:uid="{0DEBA204-AC6C-40AA-A025-75B8B2231B90}"/>
-    <hyperlink ref="Z27" r:id="rId38" display="https://doi.org/10.1136/jmg.2003.012153" xr:uid="{935AD2D7-3E43-4C8C-857A-99049F2834DA}"/>
-    <hyperlink ref="Z26" r:id="rId39" display="https://doi.org/10.2174/1566524017666171009105029" xr:uid="{4AFC2DDE-2EAA-49E3-8BAB-F2A265C94A66}"/>
-    <hyperlink ref="Z24" r:id="rId40" display="https://doi.org/10.1177/1744806918815007" xr:uid="{609C36D7-F66D-4525-8931-4CF0295524D5}"/>
-    <hyperlink ref="Z23" r:id="rId41" display="https://doi.org/10.1093/brain/awaa016" xr:uid="{59F95A74-1B25-48B7-8913-6C210B73C2C3}"/>
-    <hyperlink ref="Z21" r:id="rId42" display="https://doi.org/10.1093/brain/awaa016" xr:uid="{7BCABDBE-636A-4377-B494-F3BB1C25C8F3}"/>
-    <hyperlink ref="Z17" r:id="rId43" display="https://doi.org/10.1002/ana.22485" xr:uid="{19BECB99-8950-4CE0-A8C7-3E8DA2555BCB}"/>
-    <hyperlink ref="Z16" r:id="rId44" display="https://doi.org/10.1093/brain/awq114" xr:uid="{7AF7ABC7-1555-4608-9BD2-4B47D44CACFC}"/>
-    <hyperlink ref="Z15" r:id="rId45" display="https://doi.org/10.1186/1744-8069-4-21" xr:uid="{ADFC6795-7DBB-46BB-8F40-517F324ED811}"/>
-    <hyperlink ref="Z14" r:id="rId46" display="https://doi.org/10.1002/ana.21678" xr:uid="{15AFDC0C-3895-430E-B4A5-CE93122AAA45}"/>
-    <hyperlink ref="Z13" r:id="rId47" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1111/j.0022-202X.2005.23737.x" xr:uid="{56BA6D9B-603E-47DD-B6C8-E78F19252771}"/>
-    <hyperlink ref="Z10" r:id="rId48" display="https://doi.org/10.1016/j.ejpain.2010.03.007" xr:uid="{BE569425-4341-4B2F-9874-6AA5B9B70415}"/>
-    <hyperlink ref="Z9" r:id="rId49" display="https://doi.org/10.1186/1744-8069-7-92" xr:uid="{F368A18A-4147-4D74-8B36-22560EFB2B46}"/>
-    <hyperlink ref="Z7" r:id="rId50" display="https://doi.org/10.1113/jphysiol.2009.186114" xr:uid="{6CC3F392-E74F-4252-A68B-C914357706DD}"/>
-    <hyperlink ref="Z6" r:id="rId51" display="https://doi.org/10.1016/j.sjpain.2014.09.002" xr:uid="{CB8ADB2C-AE30-43A3-9525-1AE78C68F3BA}"/>
-    <hyperlink ref="Z5" r:id="rId52" display="https://doi.org/10.1093/brain/aws187" xr:uid="{2FE41F7B-C7E8-4A5B-9B8D-4D1491A3F32C}"/>
-    <hyperlink ref="Z3" r:id="rId53" display="https://doi.org/10.1093/brain/awp078" xr:uid="{43934371-F9D3-41DE-B8FC-CFF382057934}"/>
-    <hyperlink ref="Z2" r:id="rId54" display="https://doi.org/10.1136%2Fjnnp-2012-303719" xr:uid="{E484DBE9-5FA6-4F55-9E74-1DB3E0F224C6}"/>
-    <hyperlink ref="Z22" r:id="rId55" display="https://doi.org/10.1002/ana.22485" xr:uid="{2B953BDF-ABE0-4B9B-BF26-8C2F0DB52F45}"/>
+    <hyperlink ref="AD20" r:id="rId1" display="https://doi.org/10.1093/brain/awaa016" xr:uid="{2E770132-E003-4F83-8F4C-DE6B8243518B}"/>
+    <hyperlink ref="AD60" r:id="rId2" display="https://doi.org/10.1007%2Fs12017-012-8216-8" xr:uid="{0F8C7DBA-3D7A-4D7F-B745-99D198552BC6}"/>
+    <hyperlink ref="AD18" r:id="rId3" display="https://doi.org/10.1007/s12264-019-00413-5" xr:uid="{14BD3E41-A4A4-4FFC-B3DB-3DBDAA6F95A8}"/>
+    <hyperlink ref="AD19" r:id="rId4" display="https://doi.org/10.1007/s12264-019-00413-5" xr:uid="{8BB3F51D-EA6D-41BE-9E92-BAF2C22BA424}"/>
+    <hyperlink ref="AD8" r:id="rId5" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1111/j.0022-202X.2005.23737.x" xr:uid="{39CE969D-91CC-4B50-8725-B2958D440036}"/>
+    <hyperlink ref="AD59" r:id="rId6" display="https://doi.org/10.1186/s10194-015-0519-3" xr:uid="{91573EA6-0000-42D6-8552-DEF893CF4139}"/>
+    <hyperlink ref="AD58" r:id="rId7" display="https://doi.org/10.1523/jneurosci.0462-16.2016" xr:uid="{E5D6EE1E-7229-417E-A234-7DC9A692FB12}"/>
+    <hyperlink ref="AD57" r:id="rId8" display="https://doi.org/10.1074/jbc.m113.502211" xr:uid="{D6AB17A6-B263-4A5D-ADDD-9F805EFF9A09}"/>
+    <hyperlink ref="AD56" r:id="rId9" display="https://doi.org/10.1523%2FJNEUROSCI.3443-08.2008" xr:uid="{67B78811-8075-4B7D-A08A-CF2E474F9C2C}"/>
+    <hyperlink ref="AD55" r:id="rId10" display="https://doi.org/10.1186/1744-8069-4-37" xr:uid="{5BC2E6CE-B568-478A-AC94-D58FF6A2080F}"/>
+    <hyperlink ref="AD54" r:id="rId11" display="https://doi.org/10.1111/jns.12590" xr:uid="{8ED4417F-1EDF-4049-B959-42F477CB1F85}"/>
+    <hyperlink ref="AD53" r:id="rId12" display="https://doi.org/10.1097/aln.0000000000000476" xr:uid="{6BD0E682-C582-4339-A723-0A63147DFD25}"/>
+    <hyperlink ref="AD52" r:id="rId13" display="https://doi.org/10.1038/nrneurol.2010.162" xr:uid="{3495AEEB-597E-4000-9840-4BDDE14E61C6}"/>
+    <hyperlink ref="AD51" r:id="rId14" display="https://doi.org/10.1007%2Fs12017-012-8216-8" xr:uid="{F33877D7-4CD2-453B-89F1-B210C4CDC7F2}"/>
+    <hyperlink ref="AD50" r:id="rId15" display="https://doi.org/10.1002/ana.22485" xr:uid="{DF3490CB-586B-4E14-8B46-52E1195A0A6F}"/>
+    <hyperlink ref="AD49" r:id="rId16" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.neuron.2006.10.006" xr:uid="{79A1E7E2-C2E9-4EEB-98E0-2A2CAB7A5263}"/>
+    <hyperlink ref="AD46" r:id="rId17" display="https://doi.org/10.1093/brain/awh514" xr:uid="{50B1ED96-0904-4911-8641-E72213C09F03}"/>
+    <hyperlink ref="AD43" r:id="rId18" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.neuron.2006.10.006" xr:uid="{3022140F-7932-4CEC-9BDA-AFC5FD1A8B14}"/>
+    <hyperlink ref="AD42" r:id="rId19" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.neuron.2006.10.006" xr:uid="{970370C6-E1B4-4162-B3D6-4FB062B16F17}"/>
+    <hyperlink ref="AD47" r:id="rId20" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.neuron.2006.10.006" xr:uid="{F1474458-F437-482F-9549-0308C330A784}"/>
+    <hyperlink ref="AD48" r:id="rId21" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.neuron.2006.10.006" xr:uid="{22DCD96F-509E-42FC-BEA8-44F35C045FED}"/>
+    <hyperlink ref="AD41" r:id="rId22" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.neuron.2006.10.006" xr:uid="{68985904-4E93-49FA-8282-7BACD45A791C}"/>
+    <hyperlink ref="AD45" r:id="rId23" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.bbrc.2013.01.079" xr:uid="{1A337875-DC0E-4DE0-B67A-E24451E0C4AF}"/>
+    <hyperlink ref="AD44" r:id="rId24" display="https://doi.org/10.1111/jns.12590" xr:uid="{F1700440-BF57-41F8-803E-8DE448F1DCEE}"/>
+    <hyperlink ref="AD40" r:id="rId25" display="https://doi.org/10.1093/brain/awaa016" xr:uid="{EAFBAE4C-2DDB-4D91-B79C-91128B2C33E6}"/>
+    <hyperlink ref="AD39" r:id="rId26" display="https://doi.org/10.1002/ana.21895" xr:uid="{F0254713-5AB0-48B1-A17A-23BFD936BA07}"/>
+    <hyperlink ref="AD38" r:id="rId27" display="https://doi.org/10.1172%2FJCI33297" xr:uid="{7468F40C-F320-43A6-B588-65C224AE8912}"/>
+    <hyperlink ref="AD37" r:id="rId28" display="https://doi.org/10.1002/ana.23725" xr:uid="{1074362F-383F-41DB-AFC9-B16F5953F5B1}"/>
+    <hyperlink ref="AD36" r:id="rId29" display="https://doi.org/10.1093/brain/awr143" xr:uid="{926E5B4E-0E00-455F-87A2-8E0521921806}"/>
+    <hyperlink ref="AD35" r:id="rId30" display="https://doi.org/10.1002/ana.22485" xr:uid="{10287554-D347-482C-A8A9-5E1775A1CC39}"/>
+    <hyperlink ref="AD34" r:id="rId31" display="https://doi.org/10.1177/1358863x11422584" xr:uid="{4842A9E9-CDE5-4419-A7F2-DFEE76383400}"/>
+    <hyperlink ref="AD33" r:id="rId32" display="https://doi.org/10.1016/j.expneurol.2008.12.012" xr:uid="{EE3C0916-BC16-4C72-B8B3-2C56322B1203}"/>
+    <hyperlink ref="AD32" r:id="rId33" display="https://doi.org/10.1523/jneurosci.3424-06.2006" xr:uid="{E66FEFA4-7C22-49D9-A383-AE128FE111A9}"/>
+    <hyperlink ref="AD31" r:id="rId34" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1111/j.0022-202X.2005.23737.x" xr:uid="{4320C9C7-5482-4F1A-AC54-AC8693FA0D15}"/>
+    <hyperlink ref="AD30" r:id="rId35" display="https://doi.org/10.1136/jmg.2003.012153" xr:uid="{CFB4534C-8331-41AA-9E5C-CF9128DBA5D7}"/>
+    <hyperlink ref="AD29" r:id="rId36" display="https://doi.org/10.1093/brain/awr349" xr:uid="{27190349-1E3E-4F99-9C4F-A49DB88BE3E0}"/>
+    <hyperlink ref="AD28" r:id="rId37" display="https://doi.org/10.1074/jbc.m117.778779" xr:uid="{0DEBA204-AC6C-40AA-A025-75B8B2231B90}"/>
+    <hyperlink ref="AD27" r:id="rId38" display="https://doi.org/10.1136/jmg.2003.012153" xr:uid="{935AD2D7-3E43-4C8C-857A-99049F2834DA}"/>
+    <hyperlink ref="AD26" r:id="rId39" display="https://doi.org/10.2174/1566524017666171009105029" xr:uid="{4AFC2DDE-2EAA-49E3-8BAB-F2A265C94A66}"/>
+    <hyperlink ref="AD24" r:id="rId40" display="https://doi.org/10.1177/1744806918815007" xr:uid="{609C36D7-F66D-4525-8931-4CF0295524D5}"/>
+    <hyperlink ref="AD23" r:id="rId41" display="https://doi.org/10.1093/brain/awaa016" xr:uid="{59F95A74-1B25-48B7-8913-6C210B73C2C3}"/>
+    <hyperlink ref="AD21" r:id="rId42" display="https://doi.org/10.1093/brain/awaa016" xr:uid="{7BCABDBE-636A-4377-B494-F3BB1C25C8F3}"/>
+    <hyperlink ref="AD17" r:id="rId43" display="https://doi.org/10.1002/ana.22485" xr:uid="{19BECB99-8950-4CE0-A8C7-3E8DA2555BCB}"/>
+    <hyperlink ref="AD16" r:id="rId44" display="https://doi.org/10.1093/brain/awq114" xr:uid="{7AF7ABC7-1555-4608-9BD2-4B47D44CACFC}"/>
+    <hyperlink ref="AD15" r:id="rId45" display="https://doi.org/10.1186/1744-8069-4-21" xr:uid="{ADFC6795-7DBB-46BB-8F40-517F324ED811}"/>
+    <hyperlink ref="AD14" r:id="rId46" display="https://doi.org/10.1002/ana.21678" xr:uid="{15AFDC0C-3895-430E-B4A5-CE93122AAA45}"/>
+    <hyperlink ref="AD13" r:id="rId47" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1111/j.0022-202X.2005.23737.x" xr:uid="{56BA6D9B-603E-47DD-B6C8-E78F19252771}"/>
+    <hyperlink ref="AD10" r:id="rId48" display="https://doi.org/10.1016/j.ejpain.2010.03.007" xr:uid="{BE569425-4341-4B2F-9874-6AA5B9B70415}"/>
+    <hyperlink ref="AD9" r:id="rId49" display="https://doi.org/10.1186/1744-8069-7-92" xr:uid="{F368A18A-4147-4D74-8B36-22560EFB2B46}"/>
+    <hyperlink ref="AD7" r:id="rId50" display="https://doi.org/10.1113/jphysiol.2009.186114" xr:uid="{6CC3F392-E74F-4252-A68B-C914357706DD}"/>
+    <hyperlink ref="AD6" r:id="rId51" display="https://doi.org/10.1016/j.sjpain.2014.09.002" xr:uid="{CB8ADB2C-AE30-43A3-9525-1AE78C68F3BA}"/>
+    <hyperlink ref="AD5" r:id="rId52" display="https://doi.org/10.1093/brain/aws187" xr:uid="{2FE41F7B-C7E8-4A5B-9B8D-4D1491A3F32C}"/>
+    <hyperlink ref="AD3" r:id="rId53" display="https://doi.org/10.1093/brain/awp078" xr:uid="{43934371-F9D3-41DE-B8FC-CFF382057934}"/>
+    <hyperlink ref="AD2" r:id="rId54" display="https://doi.org/10.1136%2Fjnnp-2012-303719" xr:uid="{E484DBE9-5FA6-4F55-9E74-1DB3E0F224C6}"/>
+    <hyperlink ref="AD22" r:id="rId55" display="https://doi.org/10.1002/ana.22485" xr:uid="{2B953BDF-ABE0-4B9B-BF26-8C2F0DB52F45}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId56"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA88339-246C-4331-9282-7984C4871994}">
+  <dimension ref="A1:B46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="T44" sqref="T44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>151</v>
+      </c>
+      <c r="B25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>157</v>
+      </c>
+      <c r="B26">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>156</v>
+      </c>
+      <c r="B27">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>166</v>
+      </c>
+      <c r="B28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>173</v>
+      </c>
+      <c r="B29">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>180</v>
+      </c>
+      <c r="B30">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>185</v>
+      </c>
+      <c r="B31">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>196</v>
+      </c>
+      <c r="B33">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>202</v>
+      </c>
+      <c r="B34">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>208</v>
+      </c>
+      <c r="B35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>214</v>
+      </c>
+      <c r="B36">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>224</v>
+      </c>
+      <c r="B37">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>230</v>
+      </c>
+      <c r="B38">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>236</v>
+      </c>
+      <c r="B39">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>242</v>
+      </c>
+      <c r="B40">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>248</v>
+      </c>
+      <c r="B41">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>254</v>
+      </c>
+      <c r="B42">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>262</v>
+      </c>
+      <c r="B43">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>268</v>
+      </c>
+      <c r="B44">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>276</v>
+      </c>
+      <c r="B45">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>289</v>
+      </c>
+      <c r="B46">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B46" xr:uid="{BFA88339-246C-4331-9282-7984C4871994}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>